--- a/Code/Results/Cases/Case_2_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.78422042724405</v>
+        <v>20.7842204272441</v>
       </c>
       <c r="C2">
-        <v>17.61882486093152</v>
+        <v>17.61882486093132</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.80857065818646</v>
+        <v>12.80857065818656</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
@@ -430,16 +430,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>35.11915270897747</v>
+        <v>35.11915270897737</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>19.34233690921664</v>
+        <v>19.34233690921661</v>
       </c>
       <c r="K2">
-        <v>16.27209578628914</v>
+        <v>16.27209578628913</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.24863464412841</v>
+        <v>19.24863464412826</v>
       </c>
       <c r="C3">
-        <v>16.3024477367414</v>
+        <v>16.30244773674141</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.85433490841689</v>
+        <v>11.85433490841691</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>33.32289498275885</v>
+        <v>33.32289498275863</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>17.92799720261626</v>
+        <v>17.92799720261615</v>
       </c>
       <c r="K3">
         <v>15.06822941451237</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.26352354016588</v>
+        <v>18.26352354016592</v>
       </c>
       <c r="C4">
-        <v>15.45966033243847</v>
+        <v>15.45966033243855</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.24348584310649</v>
+        <v>11.24348584310652</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>32.20895090612038</v>
+        <v>32.20895090612018</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>17.02086480136202</v>
+        <v>17.02086480136209</v>
       </c>
       <c r="K4">
-        <v>14.29739723635965</v>
+        <v>14.29739723635972</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.85113667863529</v>
+        <v>17.85113667863527</v>
       </c>
       <c r="C5">
-        <v>15.10724357709866</v>
+        <v>15.10724357709877</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.98806310056146</v>
+        <v>10.98806310056136</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>31.75231702471505</v>
+        <v>31.75231702471503</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>16.64115445879534</v>
+        <v>16.64115445879535</v>
       </c>
       <c r="K5">
-        <v>13.97503707624841</v>
+        <v>13.97503707624836</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.78199028001079</v>
+        <v>17.78199028001077</v>
       </c>
       <c r="C6">
-        <v>15.04817508362622</v>
+        <v>15.04817508362607</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.94525180577543</v>
+        <v>10.94525180577545</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>31.6763351848859</v>
+        <v>31.67633518488595</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>16.57748855012898</v>
+        <v>16.57748855012886</v>
       </c>
       <c r="K6">
-        <v>13.92100406207724</v>
+        <v>13.92100406207717</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.25800666755386</v>
+        <v>18.25800666755389</v>
       </c>
       <c r="C7">
-        <v>15.45494421613682</v>
+        <v>15.45494421613691</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.24006770903969</v>
+        <v>11.24006770903972</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>32.20280329614362</v>
+        <v>32.20280329614368</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>17.01578496159862</v>
+        <v>17.01578496159864</v>
       </c>
       <c r="K7">
-        <v>14.29308348851761</v>
+        <v>14.29308348851766</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.26331664537094</v>
+        <v>20.26331664537082</v>
       </c>
       <c r="C8">
-        <v>17.17191786761417</v>
+        <v>17.17191786761422</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.48458517888715</v>
+        <v>12.48458517888716</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>34.50210698704015</v>
+        <v>34.50210698704029</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>18.86251342727472</v>
+        <v>18.8625134272746</v>
       </c>
       <c r="K8">
         <v>15.86339465680292</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.87694360750381</v>
+        <v>23.87694360750385</v>
       </c>
       <c r="C9">
-        <v>20.28005448568381</v>
+        <v>20.28005448568376</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.73863838237802</v>
+        <v>14.73863838237812</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>38.92644632874043</v>
+        <v>38.9264463287407</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>22.1924782710811</v>
       </c>
       <c r="K9">
-        <v>18.70595130276213</v>
+        <v>18.70595130276217</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.36436611816552</v>
+        <v>26.36436611816561</v>
       </c>
       <c r="C10">
-        <v>22.43050448443357</v>
+        <v>22.43050448443372</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.29967290925387</v>
+        <v>16.29967290925379</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>42.14047726996826</v>
+        <v>42.14047726996822</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>24.48682145184115</v>
+        <v>24.48682145184129</v>
       </c>
       <c r="K10">
-        <v>20.67326508423513</v>
+        <v>20.67326508423515</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.46695733832197</v>
+        <v>27.46695733832183</v>
       </c>
       <c r="C11">
-        <v>23.38672534762224</v>
+        <v>23.38672534762228</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.99432367671123</v>
+        <v>16.9943236767112</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43.60149515462607</v>
+        <v>43.60149515462627</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>25.50450810229043</v>
+        <v>25.50450810229032</v>
       </c>
       <c r="K11">
-        <v>21.54834039661393</v>
+        <v>21.54834039661391</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.88107471056761</v>
+        <v>27.88107471056755</v>
       </c>
       <c r="C12">
-        <v>23.74635814482658</v>
+        <v>23.74635814482659</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.25567375139395</v>
+        <v>17.25567375139396</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>44.15544264028867</v>
+        <v>44.15544264028819</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>25.88685354304637</v>
+        <v>25.88685354304634</v>
       </c>
       <c r="K12">
-        <v>21.87751047429721</v>
+        <v>21.87751047429719</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.79202518195673</v>
+        <v>27.79202518195672</v>
       </c>
       <c r="C13">
-        <v>23.66900184098574</v>
+        <v>23.66900184098569</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.19945339065248</v>
+        <v>17.1994533906525</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>44.03609303611398</v>
+        <v>44.03609303611396</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>25.80463054145635</v>
+        <v>25.80463054145634</v>
       </c>
       <c r="K13">
         <v>21.80670389734254</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.50109052006431</v>
+        <v>27.50109052006444</v>
       </c>
       <c r="C14">
-        <v>23.4163574870239</v>
+        <v>23.41635748702395</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.01585576908156</v>
+        <v>17.01585576908161</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>43.64704909179742</v>
+        <v>43.64704909179759</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>25.53602004954752</v>
+        <v>25.53602004954763</v>
       </c>
       <c r="K14">
-        <v>21.57546132964402</v>
+        <v>21.57546132964412</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.32246542584277</v>
+        <v>27.32246542584292</v>
       </c>
       <c r="C15">
-        <v>23.26130738485022</v>
+        <v>23.26130738485021</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.90319303953644</v>
+        <v>16.90319303953648</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>43.40886812797973</v>
+        <v>43.40886812798021</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>25.37111720763002</v>
+        <v>25.37111720763012</v>
       </c>
       <c r="K15">
-        <v>21.43355346731116</v>
+        <v>21.43355346731119</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.29178776520166</v>
+        <v>26.29178776520147</v>
       </c>
       <c r="C16">
-        <v>22.36762672943522</v>
+        <v>22.3676267294351</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.25400716294243</v>
+        <v>16.25400716294245</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42.04504124236188</v>
+        <v>42.04504124236166</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>24.41984738081738</v>
+        <v>24.41984738081725</v>
       </c>
       <c r="K16">
-        <v>20.61573022415462</v>
+        <v>20.61573022415457</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.65257775315012</v>
+        <v>25.65257775314996</v>
       </c>
       <c r="C17">
-        <v>21.814197487458</v>
+        <v>21.81419748745801</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.852133174106</v>
+        <v>15.85213317410595</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41.20862671912686</v>
+        <v>41.20862671912671</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>23.83007456163101</v>
+        <v>23.83007456163089</v>
       </c>
       <c r="K17">
-        <v>20.10936160014138</v>
+        <v>20.10936160014132</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.2821436397715</v>
+        <v>25.28214363977167</v>
       </c>
       <c r="C18">
-        <v>21.49375711053504</v>
+        <v>21.49375711053515</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.61949288449449</v>
+        <v>15.6194928844945</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40.72737861664908</v>
+        <v>40.72737861664938</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>23.48835396619138</v>
+        <v>23.48835396619153</v>
       </c>
       <c r="K18">
-        <v>19.81619618926831</v>
+        <v>19.81619618926836</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.1562233215839</v>
+        <v>25.15622332158388</v>
       </c>
       <c r="C19">
-        <v>21.38487776390997</v>
+        <v>21.38487776391002</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.54045404551005</v>
+        <v>15.54045404551004</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>36.1517249415763</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>23.37220452236865</v>
       </c>
       <c r="K19">
-        <v>19.71658846568191</v>
+        <v>19.71658846568193</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.72090520271817</v>
+        <v>25.72090520271825</v>
       </c>
       <c r="C20">
-        <v>21.87332600174202</v>
+        <v>21.87332600174191</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.89506437933365</v>
+        <v>15.89506437933367</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>41.29767621582393</v>
+        <v>41.29767621582386</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>23.89311078217307</v>
+        <v>23.8931107821731</v>
       </c>
       <c r="K20">
-        <v>20.16345931543877</v>
+        <v>20.16345931543874</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.586630885974</v>
+        <v>27.58663088597388</v>
       </c>
       <c r="C21">
-        <v>23.49062593534662</v>
+        <v>23.49062593534658</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.06982423891043</v>
+        <v>17.06982423891045</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>43.76129389291394</v>
+        <v>43.76129389291381</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>25.61499333798394</v>
+        <v>25.61499333798388</v>
       </c>
       <c r="K21">
         <v>21.6434367676302</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.78657973980451</v>
+        <v>28.78657973980449</v>
       </c>
       <c r="C22">
-        <v>24.53367827980366</v>
+        <v>24.53367827980379</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.82802018040088</v>
+        <v>17.82802018040084</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>45.37603887543341</v>
+        <v>45.37603887543366</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>26.72311891554383</v>
+        <v>26.72311891554384</v>
       </c>
       <c r="K22">
-        <v>22.59825869964213</v>
+        <v>22.59825869964218</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.1476307044935</v>
+        <v>28.14763070449329</v>
       </c>
       <c r="C23">
-        <v>23.97798748180015</v>
+        <v>23.97798748179997</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17.42403030490436</v>
+        <v>17.42403030490429</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>44.51344365877246</v>
+        <v>44.51344365877205</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>26.13299372894711</v>
+        <v>26.13299372894692</v>
       </c>
       <c r="K23">
-        <v>22.08953709325758</v>
+        <v>22.08953709325747</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.69002358678859</v>
+        <v>25.69002358678851</v>
       </c>
       <c r="C24">
-        <v>21.84660111118777</v>
+        <v>21.84660111118779</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.87566019583338</v>
+        <v>15.87566019583333</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>36.85121910575583</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41.25741818916048</v>
+        <v>41.25741818916019</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>23.86462042016976</v>
+        <v>23.86462042016968</v>
       </c>
       <c r="K24">
-        <v>20.13900816304665</v>
+        <v>20.13900816304655</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.9309632396866</v>
+        <v>22.93096323968659</v>
       </c>
       <c r="C25">
         <v>19.46461247614622</v>
@@ -1295,25 +1295,25 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.14706169610419</v>
+        <v>14.14706169610425</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>33.19272459127055</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>37.73762718574773</v>
+        <v>37.7376271857479</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>21.32043042064845</v>
+        <v>21.3204304206484</v>
       </c>
       <c r="K25">
-        <v>17.96012634226193</v>
+        <v>17.96012634226192</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.7842204272441</v>
+        <v>20.78422042724405</v>
       </c>
       <c r="C2">
-        <v>17.61882486093132</v>
+        <v>17.61882486093152</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.80857065818656</v>
+        <v>12.80857065818646</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
@@ -430,16 +430,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>35.11915270897737</v>
+        <v>35.11915270897747</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>19.34233690921661</v>
+        <v>19.34233690921664</v>
       </c>
       <c r="K2">
-        <v>16.27209578628913</v>
+        <v>16.27209578628914</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.24863464412826</v>
+        <v>19.24863464412841</v>
       </c>
       <c r="C3">
-        <v>16.30244773674141</v>
+        <v>16.3024477367414</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.85433490841691</v>
+        <v>11.85433490841689</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>33.32289498275863</v>
+        <v>33.32289498275885</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>17.92799720261615</v>
+        <v>17.92799720261626</v>
       </c>
       <c r="K3">
         <v>15.06822941451237</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.26352354016592</v>
+        <v>18.26352354016588</v>
       </c>
       <c r="C4">
-        <v>15.45966033243855</v>
+        <v>15.45966033243847</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.24348584310652</v>
+        <v>11.24348584310649</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>32.20895090612018</v>
+        <v>32.20895090612038</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>17.02086480136209</v>
+        <v>17.02086480136202</v>
       </c>
       <c r="K4">
-        <v>14.29739723635972</v>
+        <v>14.29739723635965</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.85113667863527</v>
+        <v>17.85113667863529</v>
       </c>
       <c r="C5">
-        <v>15.10724357709877</v>
+        <v>15.10724357709866</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.98806310056136</v>
+        <v>10.98806310056146</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>31.75231702471503</v>
+        <v>31.75231702471505</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>16.64115445879535</v>
+        <v>16.64115445879534</v>
       </c>
       <c r="K5">
-        <v>13.97503707624836</v>
+        <v>13.97503707624841</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.78199028001077</v>
+        <v>17.78199028001079</v>
       </c>
       <c r="C6">
-        <v>15.04817508362607</v>
+        <v>15.04817508362622</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.94525180577545</v>
+        <v>10.94525180577543</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>31.67633518488595</v>
+        <v>31.6763351848859</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>16.57748855012886</v>
+        <v>16.57748855012898</v>
       </c>
       <c r="K6">
-        <v>13.92100406207717</v>
+        <v>13.92100406207724</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.25800666755389</v>
+        <v>18.25800666755386</v>
       </c>
       <c r="C7">
-        <v>15.45494421613691</v>
+        <v>15.45494421613682</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.24006770903972</v>
+        <v>11.24006770903969</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>32.20280329614368</v>
+        <v>32.20280329614362</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>17.01578496159864</v>
+        <v>17.01578496159862</v>
       </c>
       <c r="K7">
-        <v>14.29308348851766</v>
+        <v>14.29308348851761</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.26331664537082</v>
+        <v>20.26331664537094</v>
       </c>
       <c r="C8">
-        <v>17.17191786761422</v>
+        <v>17.17191786761417</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.48458517888716</v>
+        <v>12.48458517888715</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>34.50210698704029</v>
+        <v>34.50210698704015</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>18.8625134272746</v>
+        <v>18.86251342727472</v>
       </c>
       <c r="K8">
         <v>15.86339465680292</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.87694360750385</v>
+        <v>23.87694360750381</v>
       </c>
       <c r="C9">
-        <v>20.28005448568376</v>
+        <v>20.28005448568381</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.73863838237812</v>
+        <v>14.73863838237802</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>38.9264463287407</v>
+        <v>38.92644632874043</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>22.1924782710811</v>
       </c>
       <c r="K9">
-        <v>18.70595130276217</v>
+        <v>18.70595130276213</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.36436611816561</v>
+        <v>26.36436611816552</v>
       </c>
       <c r="C10">
-        <v>22.43050448443372</v>
+        <v>22.43050448443357</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.29967290925379</v>
+        <v>16.29967290925387</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>42.14047726996822</v>
+        <v>42.14047726996826</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>24.48682145184129</v>
+        <v>24.48682145184115</v>
       </c>
       <c r="K10">
-        <v>20.67326508423515</v>
+        <v>20.67326508423513</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.46695733832183</v>
+        <v>27.46695733832197</v>
       </c>
       <c r="C11">
-        <v>23.38672534762228</v>
+        <v>23.38672534762224</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.9943236767112</v>
+        <v>16.99432367671123</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43.60149515462627</v>
+        <v>43.60149515462607</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>25.50450810229032</v>
+        <v>25.50450810229043</v>
       </c>
       <c r="K11">
-        <v>21.54834039661391</v>
+        <v>21.54834039661393</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.88107471056755</v>
+        <v>27.88107471056761</v>
       </c>
       <c r="C12">
-        <v>23.74635814482659</v>
+        <v>23.74635814482658</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.25567375139396</v>
+        <v>17.25567375139395</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363785</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>44.15544264028819</v>
+        <v>44.15544264028867</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>25.88685354304634</v>
+        <v>25.88685354304637</v>
       </c>
       <c r="K12">
-        <v>21.87751047429719</v>
+        <v>21.87751047429721</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.79202518195672</v>
+        <v>27.79202518195673</v>
       </c>
       <c r="C13">
-        <v>23.66900184098569</v>
+        <v>23.66900184098574</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.1994533906525</v>
+        <v>17.19945339065248</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>44.03609303611396</v>
+        <v>44.03609303611398</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>25.80463054145634</v>
+        <v>25.80463054145635</v>
       </c>
       <c r="K13">
         <v>21.80670389734254</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.50109052006444</v>
+        <v>27.50109052006431</v>
       </c>
       <c r="C14">
-        <v>23.41635748702395</v>
+        <v>23.4163574870239</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.01585576908161</v>
+        <v>17.01585576908156</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>43.64704909179759</v>
+        <v>43.64704909179742</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>25.53602004954763</v>
+        <v>25.53602004954752</v>
       </c>
       <c r="K14">
-        <v>21.57546132964412</v>
+        <v>21.57546132964402</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.32246542584292</v>
+        <v>27.32246542584277</v>
       </c>
       <c r="C15">
-        <v>23.26130738485021</v>
+        <v>23.26130738485022</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.90319303953648</v>
+        <v>16.90319303953644</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>43.40886812798021</v>
+        <v>43.40886812797973</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>25.37111720763012</v>
+        <v>25.37111720763002</v>
       </c>
       <c r="K15">
-        <v>21.43355346731119</v>
+        <v>21.43355346731116</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.29178776520147</v>
+        <v>26.29178776520166</v>
       </c>
       <c r="C16">
-        <v>22.3676267294351</v>
+        <v>22.36762672943522</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.25400716294245</v>
+        <v>16.25400716294243</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42.04504124236166</v>
+        <v>42.04504124236188</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>24.41984738081725</v>
+        <v>24.41984738081738</v>
       </c>
       <c r="K16">
-        <v>20.61573022415457</v>
+        <v>20.61573022415462</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.65257775314996</v>
+        <v>25.65257775315012</v>
       </c>
       <c r="C17">
-        <v>21.81419748745801</v>
+        <v>21.814197487458</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.85213317410595</v>
+        <v>15.852133174106</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41.20862671912671</v>
+        <v>41.20862671912686</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>23.83007456163089</v>
+        <v>23.83007456163101</v>
       </c>
       <c r="K17">
-        <v>20.10936160014132</v>
+        <v>20.10936160014138</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.28214363977167</v>
+        <v>25.2821436397715</v>
       </c>
       <c r="C18">
-        <v>21.49375711053515</v>
+        <v>21.49375711053504</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.6194928844945</v>
+        <v>15.61949288449449</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40.72737861664938</v>
+        <v>40.72737861664908</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>23.48835396619153</v>
+        <v>23.48835396619138</v>
       </c>
       <c r="K18">
-        <v>19.81619618926836</v>
+        <v>19.81619618926831</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.15622332158388</v>
+        <v>25.1562233215839</v>
       </c>
       <c r="C19">
-        <v>21.38487776391002</v>
+        <v>21.38487776390997</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.54045404551004</v>
+        <v>15.54045404551005</v>
       </c>
       <c r="F19">
-        <v>36.1517249415763</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>23.37220452236865</v>
       </c>
       <c r="K19">
-        <v>19.71658846568193</v>
+        <v>19.71658846568191</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.72090520271825</v>
+        <v>25.72090520271817</v>
       </c>
       <c r="C20">
-        <v>21.87332600174191</v>
+        <v>21.87332600174202</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.89506437933367</v>
+        <v>15.89506437933365</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>41.29767621582386</v>
+        <v>41.29767621582393</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>23.8931107821731</v>
+        <v>23.89311078217307</v>
       </c>
       <c r="K20">
-        <v>20.16345931543874</v>
+        <v>20.16345931543877</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.58663088597388</v>
+        <v>27.586630885974</v>
       </c>
       <c r="C21">
-        <v>23.49062593534658</v>
+        <v>23.49062593534662</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.06982423891045</v>
+        <v>17.06982423891043</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>43.76129389291381</v>
+        <v>43.76129389291394</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>25.61499333798388</v>
+        <v>25.61499333798394</v>
       </c>
       <c r="K21">
         <v>21.6434367676302</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.78657973980449</v>
+        <v>28.78657973980451</v>
       </c>
       <c r="C22">
-        <v>24.53367827980379</v>
+        <v>24.53367827980366</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.82802018040084</v>
+        <v>17.82802018040088</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>45.37603887543366</v>
+        <v>45.37603887543341</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>26.72311891554384</v>
+        <v>26.72311891554383</v>
       </c>
       <c r="K22">
-        <v>22.59825869964218</v>
+        <v>22.59825869964213</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.14763070449329</v>
+        <v>28.1476307044935</v>
       </c>
       <c r="C23">
-        <v>23.97798748179997</v>
+        <v>23.97798748180015</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17.42403030490429</v>
+        <v>17.42403030490436</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>44.51344365877205</v>
+        <v>44.51344365877246</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>26.13299372894692</v>
+        <v>26.13299372894711</v>
       </c>
       <c r="K23">
-        <v>22.08953709325747</v>
+        <v>22.08953709325758</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.69002358678851</v>
+        <v>25.69002358678859</v>
       </c>
       <c r="C24">
-        <v>21.84660111118779</v>
+        <v>21.84660111118777</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.87566019583333</v>
+        <v>15.87566019583338</v>
       </c>
       <c r="F24">
-        <v>36.85121910575583</v>
+        <v>36.85121910575585</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41.25741818916019</v>
+        <v>41.25741818916048</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>23.86462042016968</v>
+        <v>23.86462042016976</v>
       </c>
       <c r="K24">
-        <v>20.13900816304655</v>
+        <v>20.13900816304665</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.93096323968659</v>
+        <v>22.9309632396866</v>
       </c>
       <c r="C25">
         <v>19.46461247614622</v>
@@ -1295,25 +1295,25 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.14706169610425</v>
+        <v>14.14706169610419</v>
       </c>
       <c r="F25">
-        <v>33.19272459127055</v>
+        <v>33.19272459127056</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>37.7376271857479</v>
+        <v>37.73762718574773</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>21.3204304206484</v>
+        <v>21.32043042064845</v>
       </c>
       <c r="K25">
-        <v>17.96012634226192</v>
+        <v>17.96012634226193</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.78422042724405</v>
+        <v>20.6452975016551</v>
       </c>
       <c r="C2">
-        <v>17.61882486093152</v>
+        <v>17.4809620394953</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.80857065818646</v>
+        <v>12.79445654069879</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.064960366617917</v>
       </c>
       <c r="H2">
-        <v>35.11915270897747</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>35.26661539325568</v>
       </c>
       <c r="J2">
-        <v>19.34233690921664</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>16.27209578628914</v>
+        <v>19.18544753064819</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>16.20354166661225</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.24863464412841</v>
+        <v>19.11832071705677</v>
       </c>
       <c r="C3">
-        <v>16.3024477367414</v>
+        <v>16.17480837795456</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.85433490841689</v>
+        <v>11.84304725696344</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.078916740589305</v>
       </c>
       <c r="H3">
-        <v>33.32289498275885</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>33.50113042130061</v>
       </c>
       <c r="J3">
-        <v>17.92799720261626</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>15.06822941451237</v>
+        <v>17.77756680694296</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>15.00427916867006</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.26352354016588</v>
+        <v>18.1387963077462</v>
       </c>
       <c r="C4">
-        <v>15.45966033243847</v>
+        <v>15.33874070829805</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.24348584310649</v>
+        <v>11.23390927057672</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.087592421954</v>
       </c>
       <c r="H4">
-        <v>32.20895090612038</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>32.40742306119498</v>
       </c>
       <c r="J4">
-        <v>17.02086480136202</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>14.29739723635965</v>
+        <v>16.87446770388055</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>14.2362794774357</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.85113667863529</v>
+        <v>17.72877263936534</v>
       </c>
       <c r="C5">
-        <v>15.10724357709866</v>
+        <v>14.98918752556117</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.98806310056146</v>
+        <v>10.97918073041038</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.091160243000423</v>
       </c>
       <c r="H5">
-        <v>31.75231702471505</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>31.9593768491971</v>
       </c>
       <c r="J5">
-        <v>16.64115445879534</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>13.97503707624841</v>
+        <v>16.49642284253823</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>13.91507911809025</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.78199028001079</v>
+        <v>17.66002420956488</v>
       </c>
       <c r="C6">
-        <v>15.04817508362622</v>
+        <v>14.93060252552631</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.94525180577543</v>
+        <v>10.93648460049714</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.091754788272103</v>
       </c>
       <c r="H6">
-        <v>31.6763351848859</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>31.88484159397721</v>
       </c>
       <c r="J6">
-        <v>16.57748855012898</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>13.92100406207724</v>
+        <v>16.4330349382183</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>13.86123912979203</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.25800666755386</v>
+        <v>18.13331094050841</v>
       </c>
       <c r="C7">
-        <v>15.45494421613682</v>
+        <v>15.33406268463749</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.24006770903969</v>
+        <v>11.23050050758475</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.087640400577195</v>
       </c>
       <c r="H7">
-        <v>32.20280329614362</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>32.40138988545525</v>
       </c>
       <c r="J7">
-        <v>17.01578496159862</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>14.29308348851761</v>
+        <v>16.86941023078451</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>14.23198134370825</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.26331664537094</v>
+        <v>20.12730611696286</v>
       </c>
       <c r="C8">
-        <v>17.17191786761417</v>
+        <v>17.03749629163686</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.48458517888715</v>
+        <v>12.47145271113612</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.069754043860998</v>
       </c>
       <c r="H8">
-        <v>34.50210698704015</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>34.65990515929786</v>
       </c>
       <c r="J8">
-        <v>18.86251342727472</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>15.86339465680292</v>
+        <v>18.70784029639117</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>15.79642947391006</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.87694360750381</v>
+        <v>23.72065276985882</v>
       </c>
       <c r="C9">
-        <v>20.28005448568381</v>
+        <v>20.12201193607523</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.73863838237802</v>
+        <v>14.71814696017659</v>
       </c>
       <c r="F9">
         <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.035229806331051</v>
       </c>
       <c r="H9">
-        <v>38.92644632874043</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>39.01450413577741</v>
       </c>
       <c r="J9">
-        <v>22.1924782710811</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>18.70595130276213</v>
+        <v>22.02179928891789</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>18.62730347161833</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.36436611816552</v>
+        <v>26.19363818408555</v>
       </c>
       <c r="C10">
-        <v>22.43050448443357</v>
+        <v>22.25609129307959</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.29967290925387</v>
+        <v>16.27323356720874</v>
       </c>
       <c r="F10">
         <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.009717810503848</v>
       </c>
       <c r="H10">
-        <v>42.14047726996826</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>42.18264425345274</v>
       </c>
       <c r="J10">
-        <v>24.48682145184115</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>20.67326508423513</v>
+        <v>24.30407349238677</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>20.58550605461932</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.46695733832197</v>
+        <v>27.28957873049438</v>
       </c>
       <c r="C11">
-        <v>23.38672534762224</v>
+        <v>23.20488109317837</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.99432367671123</v>
+        <v>16.96496013758229</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.997945191088362</v>
       </c>
       <c r="H11">
-        <v>43.60149515462607</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>43.6236454764599</v>
       </c>
       <c r="J11">
-        <v>25.50450810229043</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>21.54834039661393</v>
+        <v>25.31605667301898</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>21.45619137255337</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.88107471056761</v>
+        <v>27.70114633488714</v>
       </c>
       <c r="C12">
-        <v>23.74635814482658</v>
+        <v>23.56168216620154</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.25567375139395</v>
+        <v>17.22515979231867</v>
       </c>
       <c r="F12">
         <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.993449186200682</v>
       </c>
       <c r="H12">
-        <v>44.15544264028867</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>44.17010290381754</v>
       </c>
       <c r="J12">
-        <v>25.88685354304637</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>21.87751047429721</v>
+        <v>25.69619506340299</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>21.78364877561784</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.79202518195673</v>
+        <v>27.61264769603545</v>
       </c>
       <c r="C13">
-        <v>23.66900184098574</v>
+        <v>23.48493688125841</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.19945339065248</v>
+        <v>17.16918933572777</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.994419422881712</v>
       </c>
       <c r="H13">
-        <v>44.03609303611398</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>44.05236305424597</v>
       </c>
       <c r="J13">
-        <v>25.80463054145635</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>21.80670389734254</v>
+        <v>25.61444980873579</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>21.71321357740488</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.50109052006431</v>
+        <v>27.32350289631974</v>
       </c>
       <c r="C14">
-        <v>23.4163574870239</v>
+        <v>23.23428075110522</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.01585576908156</v>
+        <v>16.98639852725644</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.997576153069319</v>
       </c>
       <c r="H14">
-        <v>43.64704909179742</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>43.66858162616474</v>
       </c>
       <c r="J14">
-        <v>25.53602004954752</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>21.57546132964402</v>
+        <v>25.34738810460693</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>21.48317251237457</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.32246542584277</v>
+        <v>27.14596941425715</v>
       </c>
       <c r="C15">
-        <v>23.26130738485022</v>
+        <v>23.08044551366368</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.90319303953644</v>
+        <v>16.87422397652248</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.999504334659727</v>
       </c>
       <c r="H15">
-        <v>43.40886812797973</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>43.43363465445174</v>
       </c>
       <c r="J15">
-        <v>25.37111720763002</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>21.43355346731116</v>
+        <v>25.18342720983456</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>21.34199353665353</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.29178776520166</v>
+        <v>26.12149124205018</v>
       </c>
       <c r="C16">
-        <v>22.36762672943522</v>
+        <v>22.19369787809997</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.25400716294243</v>
+        <v>16.22775360564771</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.010482686924676</v>
       </c>
       <c r="H16">
-        <v>42.04504124236188</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>42.08853095583936</v>
       </c>
       <c r="J16">
-        <v>24.41984738081738</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>20.61573022415462</v>
+        <v>24.23746654954065</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>20.5282519682575</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.65257775315012</v>
+        <v>25.48605068928068</v>
       </c>
       <c r="C17">
-        <v>21.814197487458</v>
+        <v>21.64451290036727</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.852133174106</v>
+        <v>15.82748224098336</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.01716567141094</v>
       </c>
       <c r="H17">
-        <v>41.20862671912686</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>41.26380109977925</v>
       </c>
       <c r="J17">
-        <v>23.83007456163101</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>20.10936160014138</v>
+        <v>23.65088568248139</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>20.02431509914204</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.2821436397715</v>
+        <v>25.11777821215087</v>
       </c>
       <c r="C18">
-        <v>21.49375711053504</v>
+        <v>21.32651661382605</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.61949288449449</v>
+        <v>15.59574404094891</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.020994798259256</v>
       </c>
       <c r="H18">
-        <v>40.72737861664908</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>40.78935704234612</v>
       </c>
       <c r="J18">
-        <v>23.48835396619138</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>19.81619618926831</v>
+        <v>23.31098216430532</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>19.73252639260086</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.1562233215839</v>
+        <v>24.99258919730195</v>
       </c>
       <c r="C19">
-        <v>21.38487776390997</v>
+        <v>21.21846583848457</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.54045404551005</v>
+        <v>15.51700755404508</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.022289122942718</v>
       </c>
       <c r="H19">
-        <v>40.56438643658247</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>40.62868380474887</v>
       </c>
       <c r="J19">
-        <v>23.37220452236865</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>19.71658846568191</v>
+        <v>23.19544514825946</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>19.63338141361904</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.72090520271817</v>
+        <v>25.55397766773515</v>
       </c>
       <c r="C20">
-        <v>21.87332600174202</v>
+        <v>21.70318943719645</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.89506437933365</v>
+        <v>15.87024495673154</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.016455875078827</v>
       </c>
       <c r="H20">
-        <v>41.29767621582393</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>41.35159833726566</v>
       </c>
       <c r="J20">
-        <v>23.89311078217307</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>20.16345931543877</v>
+        <v>23.71358417090441</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>20.07815631981699</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.586630885974</v>
+        <v>27.40851856354948</v>
       </c>
       <c r="C21">
-        <v>23.49062593534662</v>
+        <v>23.30796587317632</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.06982423891043</v>
+        <v>17.04013129656397</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.996650100688467</v>
       </c>
       <c r="H21">
-        <v>43.76129389291394</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>43.78127857313527</v>
       </c>
       <c r="J21">
-        <v>25.61499333798394</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>21.6434367676302</v>
+        <v>25.42590791577086</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>21.55079654628457</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.78657973980451</v>
+        <v>28.6009622742987</v>
       </c>
       <c r="C22">
-        <v>24.53367827980366</v>
+        <v>24.34271708659569</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.82802018040088</v>
+        <v>17.79488272543752</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.983475882167836</v>
       </c>
       <c r="H22">
-        <v>45.37603887543341</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>45.37434455669352</v>
       </c>
       <c r="J22">
-        <v>26.72311891554383</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>22.59825869964213</v>
+        <v>26.5274991889473</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>22.50051959713944</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.1476307044935</v>
+        <v>27.96604446413307</v>
       </c>
       <c r="C23">
-        <v>23.97798748180015</v>
+        <v>23.79147527567701</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17.42403030490436</v>
+        <v>17.39275982922555</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.99053364714253</v>
       </c>
       <c r="H23">
-        <v>44.51344365877246</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>44.52328752951089</v>
       </c>
       <c r="J23">
-        <v>26.13299372894711</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>22.08953709325758</v>
+        <v>25.94089458615817</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>21.99455334473369</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.69002358678859</v>
+        <v>25.52327712046038</v>
       </c>
       <c r="C24">
-        <v>21.84660111118777</v>
+        <v>21.67666887172111</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.87566019583338</v>
+        <v>15.85091700654752</v>
       </c>
       <c r="F24">
         <v>36.85121910575585</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.016776813509011</v>
       </c>
       <c r="H24">
-        <v>41.25741818916048</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>41.31190618552397</v>
       </c>
       <c r="J24">
-        <v>23.86462042016976</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>20.13900816304665</v>
+        <v>23.68524655253019</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>20.05382119405523</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.9309632396866</v>
+        <v>22.78002293415524</v>
       </c>
       <c r="C25">
-        <v>19.46461247614622</v>
+        <v>19.31272690168608</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.14706169610419</v>
+        <v>14.12862846039741</v>
       </c>
       <c r="F25">
         <v>33.19272459127056</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.044555733649529</v>
       </c>
       <c r="H25">
-        <v>37.73762718574773</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>37.84352953710567</v>
       </c>
       <c r="J25">
-        <v>21.32043042064845</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>17.96012634226193</v>
+        <v>21.15409526059741</v>
       </c>
       <c r="L25">
+        <v>17.88469571704102</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.6452975016551</v>
+        <v>23.16855593225955</v>
       </c>
       <c r="C2">
-        <v>17.4809620394953</v>
+        <v>16.4305025004088</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.79445654069879</v>
+        <v>9.962679409981297</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.064960366617917</v>
+        <v>2.067727890933024</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>35.26661539325568</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.18544753064819</v>
+        <v>20.3459193701986</v>
       </c>
       <c r="L2">
-        <v>16.20354166661225</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>18.87816162732753</v>
+      </c>
+      <c r="N2">
+        <v>14.94716783107724</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.11832071705677</v>
+        <v>21.46688823887308</v>
       </c>
       <c r="C3">
-        <v>16.17480837795456</v>
+        <v>15.20819070865765</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.84304725696344</v>
+        <v>9.352589021489893</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.078916740589305</v>
+        <v>2.081022147344864</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.50113042130061</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.77756680694296</v>
+        <v>18.84596833283784</v>
       </c>
       <c r="L3">
-        <v>15.00427916867006</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>17.50093905031262</v>
+      </c>
+      <c r="N3">
+        <v>14.99757185332281</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.1387963077462</v>
+        <v>20.37616892875234</v>
       </c>
       <c r="C4">
-        <v>15.33874070829805</v>
+        <v>14.4248869660406</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.23390927057672</v>
+        <v>8.970499256289099</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.087592421954</v>
+        <v>2.089307078906584</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.40742306119498</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.87446770388055</v>
+        <v>17.88334029190937</v>
       </c>
       <c r="L4">
-        <v>14.2362794774357</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>16.6171272401676</v>
+      </c>
+      <c r="N4">
+        <v>15.03572991951187</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.72877263936534</v>
+        <v>19.91989555873968</v>
       </c>
       <c r="C5">
-        <v>14.98918752556117</v>
+        <v>14.09719616147435</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.97918073041038</v>
+        <v>8.812966662805643</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>2.091160243000423</v>
+        <v>2.092718785436031</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.9593768491971</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.49642284253823</v>
+        <v>17.48030738204672</v>
       </c>
       <c r="L5">
-        <v>13.91507911809025</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>16.24709082841232</v>
+      </c>
+      <c r="N5">
+        <v>15.05296294600437</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.66002420956488</v>
+        <v>19.84341254545549</v>
       </c>
       <c r="C6">
-        <v>14.93060252552631</v>
+        <v>14.04226414584381</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.93648460049714</v>
+        <v>8.786700611984442</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>2.091754788272103</v>
+        <v>2.093287573874274</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.88484159397721</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.4330349382183</v>
+        <v>17.41272686409612</v>
       </c>
       <c r="L6">
-        <v>13.86123912979203</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>16.18504255752153</v>
+      </c>
+      <c r="N6">
+        <v>15.055922597861</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.13331094050841</v>
+        <v>20.37006353881918</v>
       </c>
       <c r="C7">
-        <v>15.33406268463749</v>
+        <v>14.4205022810176</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.23050050758475</v>
+        <v>8.968382010649037</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>2.087640400577195</v>
+        <v>2.089352940518163</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.40138988545525</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.86941023078451</v>
+        <v>17.87794874371464</v>
       </c>
       <c r="L7">
-        <v>14.23198134370825</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>16.61217713045703</v>
+      </c>
+      <c r="N7">
+        <v>15.03595567643335</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.12730611696286</v>
+        <v>22.59117634789095</v>
       </c>
       <c r="C8">
-        <v>17.03749629163686</v>
+        <v>16.01570367549295</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.47145271113612</v>
+        <v>9.753894493660258</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.069754043860998</v>
+        <v>2.072289436631378</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.65990515929786</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.70784029639117</v>
+        <v>19.83720337622539</v>
       </c>
       <c r="L8">
-        <v>15.79642947391006</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>18.41105026255929</v>
+      </c>
+      <c r="N8">
+        <v>14.9629685081049</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.72065276985882</v>
+        <v>26.59672732753956</v>
       </c>
       <c r="C9">
-        <v>20.12201193607523</v>
+        <v>18.89604258256243</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.71814696017659</v>
+        <v>11.4474642996266</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>2.035229806331051</v>
+        <v>2.039550952268007</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>39.01450413577741</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.02179928891789</v>
+        <v>23.36310691247327</v>
       </c>
       <c r="L9">
-        <v>18.62730347161833</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>21.6493334667499</v>
+      </c>
+      <c r="N9">
+        <v>14.88365726433238</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.19363818408555</v>
+        <v>29.34982057390176</v>
       </c>
       <c r="C10">
-        <v>22.25609129307959</v>
+        <v>20.88121728327815</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.27323356720874</v>
+        <v>12.65057264433345</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
-        <v>2.009717810503848</v>
+        <v>2.01553856775279</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>42.18264425345274</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.30407349238677</v>
+        <v>25.78377450931956</v>
       </c>
       <c r="L10">
-        <v>20.58550605461932</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>23.87399217072156</v>
+      </c>
+      <c r="N10">
+        <v>14.87487905612645</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.28957873049438</v>
+        <v>30.56763803780932</v>
       </c>
       <c r="C11">
-        <v>23.20488109317837</v>
+        <v>21.76132714464712</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.96496013758229</v>
+        <v>13.18411734309077</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>1.997945191088362</v>
+        <v>2.004514257407986</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>43.6236454764599</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.31605667301898</v>
+        <v>26.85429122308642</v>
       </c>
       <c r="L11">
-        <v>21.45619137255337</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>24.85833630048834</v>
+      </c>
+      <c r="N11">
+        <v>14.88447099972696</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.70114633488714</v>
+        <v>31.02449218078684</v>
       </c>
       <c r="C12">
-        <v>23.56168216620154</v>
+        <v>22.09185212467754</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.22515979231867</v>
+        <v>13.38451691764712</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>1.993449186200682</v>
+        <v>2.000313989663651</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>44.17010290381754</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.69619506340299</v>
+        <v>27.25587915216416</v>
       </c>
       <c r="L12">
-        <v>21.78364877561784</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>25.22768915349769</v>
+      </c>
+      <c r="N12">
+        <v>14.89034131935268</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.61264769603545</v>
+        <v>30.9262800865156</v>
       </c>
       <c r="C13">
-        <v>23.48493688125841</v>
+        <v>22.02078032632005</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.16918933572777</v>
+        <v>13.34142432798199</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>1.994419422881712</v>
+        <v>2.001219929822446</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>44.05236305424597</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.61444980873579</v>
+        <v>27.169547755586</v>
       </c>
       <c r="L13">
-        <v>21.71321357740488</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>25.14828312740501</v>
+      </c>
+      <c r="N13">
+        <v>14.88897246603814</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.32350289631974</v>
+        <v>30.60530576724205</v>
       </c>
       <c r="C14">
-        <v>23.23428075110522</v>
+        <v>21.78857132720392</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.98639852725644</v>
+        <v>13.20063511233185</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>1.997576153069319</v>
+        <v>2.004169282765</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>43.66858162616474</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.34738810460693</v>
+        <v>26.88740222069758</v>
       </c>
       <c r="L14">
-        <v>21.48317251237457</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>24.88878756747796</v>
+      </c>
+      <c r="N14">
+        <v>14.88490730332339</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.14596941425715</v>
+        <v>30.40816068597575</v>
       </c>
       <c r="C15">
-        <v>23.08044551366368</v>
+        <v>21.64599595439523</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.87422397652248</v>
+        <v>13.11419476554233</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>1.999504334659727</v>
+        <v>2.005972148820563</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>43.43363465445174</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.18342720983456</v>
+        <v>26.71410599926607</v>
       </c>
       <c r="L15">
-        <v>21.34199353665353</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>24.72941564514169</v>
+      </c>
+      <c r="N15">
+        <v>14.88271797447634</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.12149124205018</v>
+        <v>29.26959170770472</v>
       </c>
       <c r="C16">
-        <v>22.19369787809997</v>
+        <v>20.82328272977413</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.22775360564771</v>
+        <v>12.61545484636387</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.010482686924676</v>
+        <v>2.016256098455514</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>42.08853095583936</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.23746654954065</v>
+        <v>25.71324701271945</v>
       </c>
       <c r="L16">
-        <v>20.5282519682575</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>23.80915374039162</v>
+      </c>
+      <c r="N16">
+        <v>14.874548860822</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.48605068928068</v>
+        <v>28.56269701990254</v>
       </c>
       <c r="C17">
-        <v>21.64451290036727</v>
+        <v>20.31305545665392</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.82748224098336</v>
+        <v>12.3061922593804</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>2.01716567141094</v>
+        <v>2.022531832716432</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>41.26380109977925</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.65088568248139</v>
+        <v>25.09180585904021</v>
       </c>
       <c r="L17">
-        <v>20.02431509914204</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>23.23790080319024</v>
+      </c>
+      <c r="N17">
+        <v>14.87320537364863</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.11777821215087</v>
+        <v>28.15280897563008</v>
       </c>
       <c r="C18">
-        <v>21.32651661382605</v>
+        <v>20.0173876349988</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.59574404094891</v>
+        <v>12.12699473487097</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>2.020994798259256</v>
+        <v>2.026132735204329</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>40.78935704234612</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.31098216430532</v>
+        <v>24.73144138351804</v>
       </c>
       <c r="L18">
-        <v>19.73252639260086</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>22.90668733984791</v>
+      </c>
+      <c r="N18">
+        <v>14.87369186003652</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.99258919730195</v>
+        <v>28.01344261957972</v>
       </c>
       <c r="C19">
-        <v>21.21846583848457</v>
+        <v>19.91688682539431</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.51700755404508</v>
+        <v>12.06608587548348</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>36.1517249415763</v>
       </c>
       <c r="G19">
-        <v>2.022289122942718</v>
+        <v>2.027350744937176</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>40.62868380474887</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.19544514825946</v>
+        <v>24.60890821845711</v>
       </c>
       <c r="L19">
-        <v>19.63338141361904</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>22.79407392204665</v>
+      </c>
+      <c r="N19">
+        <v>14.8740649047416</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.55397766773515</v>
+        <v>28.63828435697902</v>
       </c>
       <c r="C20">
-        <v>21.70318943719645</v>
+        <v>20.36759390465278</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.87024495673154</v>
+        <v>12.33924793448788</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>2.016455875078827</v>
+        <v>2.021864747993942</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>41.35159833726566</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.71358417090441</v>
+        <v>25.15825824203166</v>
       </c>
       <c r="L20">
-        <v>20.07815631981699</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>23.29898138789236</v>
+      </c>
+      <c r="N20">
+        <v>14.87321614833732</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.40851856354948</v>
+        <v>30.69969467513411</v>
       </c>
       <c r="C21">
-        <v>23.30796587317632</v>
+        <v>21.85684661029584</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.04013129656397</v>
+        <v>13.24202991325749</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>1.996650100688467</v>
+        <v>2.003303779688979</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>43.78127857313527</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.42590791577086</v>
+        <v>26.97037271608786</v>
       </c>
       <c r="L21">
-        <v>21.55079654628457</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>24.96509475450141</v>
+      </c>
+      <c r="N21">
+        <v>14.88603809894698</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.6009622742987</v>
+        <v>32.02224524134009</v>
       </c>
       <c r="C22">
-        <v>24.34271708659569</v>
+        <v>22.81444045882476</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.79488272543752</v>
+        <v>13.82267999753865</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>1.983475882167836</v>
+        <v>1.991017162356021</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>45.37434455669352</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>26.5274991889473</v>
+        <v>28.13295201517805</v>
       </c>
       <c r="L22">
-        <v>22.50051959713944</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>26.03454490357495</v>
+      </c>
+      <c r="N22">
+        <v>14.90763098771626</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.96604446413307</v>
+        <v>31.3183815815626</v>
       </c>
       <c r="C23">
-        <v>23.79147527567701</v>
+        <v>22.304584742238</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17.39275982922555</v>
+        <v>13.51350614625987</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>1.99053364714253</v>
+        <v>1.997593256765541</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>44.52328752951089</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.94089458615817</v>
+        <v>27.51421800972826</v>
       </c>
       <c r="L23">
-        <v>21.99455334473369</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>25.46531901504883</v>
+      </c>
+      <c r="N23">
+        <v>14.89479069014678</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.52327712046038</v>
+        <v>28.60412222487911</v>
       </c>
       <c r="C24">
-        <v>21.67666887172111</v>
+        <v>20.34294437374437</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.85091700654752</v>
+        <v>12.32430784363761</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>2.016776813509011</v>
+        <v>2.022166358310512</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>41.31190618552397</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.68524655253019</v>
+        <v>25.12822478808537</v>
       </c>
       <c r="L24">
-        <v>20.05382119405523</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>23.27137559593184</v>
+      </c>
+      <c r="N24">
+        <v>14.87320737699944</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.78002293415524</v>
+        <v>25.54839480429088</v>
       </c>
       <c r="C25">
-        <v>19.31272690168608</v>
+        <v>18.14147012713423</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.12862846039741</v>
+        <v>10.99026865800065</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>2.044555733649529</v>
+        <v>2.048367925184839</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>37.84352953710567</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.15409526059741</v>
+        <v>22.4409285496213</v>
       </c>
       <c r="L25">
-        <v>17.88469571704102</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>20.80218198574855</v>
+      </c>
+      <c r="N25">
+        <v>14.89727662328894</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.16855593225955</v>
+        <v>14.09998010265358</v>
       </c>
       <c r="C2">
-        <v>16.4305025004088</v>
+        <v>5.875880417281303</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.962679409981297</v>
+        <v>7.315058680251961</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.067727890933024</v>
+        <v>28.92790737560516</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.57618025369351</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16.91287334936537</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.3459193701986</v>
+        <v>11.30038218561383</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.998429475176731</v>
       </c>
       <c r="M2">
-        <v>18.87816162732753</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.94716783107724</v>
+        <v>13.16680659631922</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.46688823887308</v>
+        <v>13.23917434866623</v>
       </c>
       <c r="C3">
-        <v>15.20819070865765</v>
+        <v>5.655025472883682</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.352589021489893</v>
+        <v>7.178228142620179</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.081022147344864</v>
+        <v>28.65538900741065</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.6425831295635</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>17.02794639626002</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.84596833283784</v>
+        <v>10.56913122900859</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.798474188527121</v>
       </c>
       <c r="M3">
-        <v>17.50093905031262</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.99757185332281</v>
+        <v>13.39172440868681</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.37616892875234</v>
+        <v>12.68661092357162</v>
       </c>
       <c r="C4">
-        <v>14.4248869660406</v>
+        <v>5.515039852921523</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.970499256289099</v>
+        <v>7.096880595795121</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.089307078906584</v>
+        <v>28.5194781463831</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10.69027149260005</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>17.11141353826478</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.88334029190937</v>
+        <v>10.09501866073914</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.676553483257551</v>
       </c>
       <c r="M4">
-        <v>16.6171272401676</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>15.03572991951187</v>
+        <v>13.53276033133814</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.91989555873968</v>
+        <v>12.4555403249436</v>
       </c>
       <c r="C5">
-        <v>14.09719616147435</v>
+        <v>5.456924719257175</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.812966662805643</v>
+        <v>7.064429791107907</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.092718785436031</v>
+        <v>28.47173744437907</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.71137700431554</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>17.14851159416072</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.48030738204672</v>
+        <v>9.895477379836782</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.627148911384011</v>
       </c>
       <c r="M5">
-        <v>16.24709082841232</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>15.05296294600437</v>
+        <v>13.59099914799567</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.84341254545549</v>
+        <v>12.41682010954511</v>
       </c>
       <c r="C6">
-        <v>14.04226414584381</v>
+        <v>5.447211161434823</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.786700611984442</v>
+        <v>7.059084377233167</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.093287573874274</v>
+        <v>28.46426393077725</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.71498064452912</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>17.15485409972737</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.41272686409612</v>
+        <v>9.861960549833942</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.618964115896452</v>
       </c>
       <c r="M6">
-        <v>16.18504255752153</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>15.055922597861</v>
+        <v>13.6007166718365</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.37006353881918</v>
+        <v>12.68351827911875</v>
       </c>
       <c r="C7">
-        <v>14.4205022810176</v>
+        <v>5.514260377922418</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.968382010649037</v>
+        <v>7.096440086289585</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.089352940518163</v>
+        <v>28.51880370153782</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.69054944508234</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>17.1119015433525</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.87794874371464</v>
+        <v>10.09235325489865</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.675885978484854</v>
       </c>
       <c r="M7">
-        <v>16.61217713045703</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>15.03595567643335</v>
+        <v>13.53354262546767</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.59117634789095</v>
+        <v>13.8082358529534</v>
       </c>
       <c r="C8">
-        <v>16.01570367549295</v>
+        <v>5.800655738053736</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.753894493660258</v>
+        <v>7.267343353096751</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.072289436631378</v>
+        <v>28.82727537019537</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.59759906180726</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>16.94980712342215</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.83720337622539</v>
+        <v>11.05344700442303</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.92934586236063</v>
       </c>
       <c r="M8">
-        <v>18.41105026255929</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>14.9629685081049</v>
+        <v>13.24376592357577</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.59672732753956</v>
+        <v>15.92065724812694</v>
       </c>
       <c r="C9">
-        <v>18.89604258256243</v>
+        <v>6.326446761043409</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.4474642996266</v>
+        <v>7.622360950449385</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.039550952268007</v>
+        <v>29.69173804596466</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.47337168566462</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>16.74004194787463</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.36310691247327</v>
+        <v>12.74003578614228</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.430474824497546</v>
       </c>
       <c r="M9">
-        <v>21.6493334667499</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>14.88365726433238</v>
+        <v>12.69749061499202</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.34982057390176</v>
+        <v>17.39160260694547</v>
       </c>
       <c r="C10">
-        <v>20.88121728327815</v>
+        <v>6.689881194368866</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.65057264433345</v>
+        <v>7.893593398651856</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.01553856775279</v>
+        <v>30.49745338228501</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>10.42207915235768</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>16.66111981027944</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.78377450931956</v>
+        <v>13.86047704890191</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.797892194533261</v>
       </c>
       <c r="M10">
-        <v>23.87399217072156</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>14.87487905612645</v>
+        <v>12.30758495335023</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.56763803780932</v>
+        <v>18.02691248026021</v>
       </c>
       <c r="C11">
-        <v>21.76132714464712</v>
+        <v>6.850148296123061</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.18411734309077</v>
+        <v>8.018892918705349</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.004514257407986</v>
+        <v>30.90321282617059</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.40848717562798</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>16.64367227878142</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.85429122308642</v>
+        <v>14.34496374754003</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.964289607511821</v>
       </c>
       <c r="M11">
-        <v>24.85833630048834</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>14.88447099972696</v>
+        <v>12.13222794165037</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.02449218078684</v>
+        <v>18.26269207662679</v>
       </c>
       <c r="C12">
-        <v>22.09185212467754</v>
+        <v>6.910107304875216</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.38451691764712</v>
+        <v>8.066588525552676</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.000313989663651</v>
+        <v>31.06265404586717</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.40483373812032</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>16.63990313597516</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>27.25587915216416</v>
+        <v>14.5248504062875</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.027152104928678</v>
       </c>
       <c r="M12">
-        <v>25.22768915349769</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>14.89034131935268</v>
+        <v>12.06607341556118</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.9262800865156</v>
+        <v>18.21212504054989</v>
       </c>
       <c r="C13">
-        <v>22.02078032632005</v>
+        <v>6.897226548876981</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.34142432798199</v>
+        <v>8.056305840249681</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>2.001219929822446</v>
+        <v>31.02805590150539</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.40555262590209</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>16.64058567662553</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>27.169547755586</v>
+        <v>14.48626693565974</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.013620749169311</v>
       </c>
       <c r="M13">
-        <v>25.14828312740501</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>14.88897246603814</v>
+        <v>12.08031055446908</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.60530576724205</v>
+        <v>18.04640598534497</v>
       </c>
       <c r="C14">
-        <v>21.78857132720392</v>
+        <v>6.855095802253825</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.20063511233185</v>
+        <v>8.022812058580648</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.004169282765</v>
+        <v>30.91621335119775</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.40815612671433</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>16.64330423769396</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.88740222069758</v>
+        <v>14.35983455546873</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.96946453827896</v>
       </c>
       <c r="M14">
-        <v>24.88878756747796</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>14.88490730332339</v>
+        <v>12.12678061099956</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.40816068597575</v>
+        <v>17.94427540635661</v>
       </c>
       <c r="C15">
-        <v>21.64599595439523</v>
+        <v>6.829194348853089</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.11419476554233</v>
+        <v>8.002327578620196</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.96319309123409</v>
       </c>
       <c r="G15">
-        <v>2.005972148820563</v>
+        <v>30.84846451768549</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10.40994817126164</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>16.64534457774409</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.71410599926607</v>
+        <v>14.28192657931594</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.942397098684624</v>
       </c>
       <c r="M15">
-        <v>24.72941564514169</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>14.88271797447634</v>
+        <v>12.15527609952781</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.26959170770472</v>
+        <v>17.34940844480842</v>
       </c>
       <c r="C16">
-        <v>20.82328272977413</v>
+        <v>6.679305159531459</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.61545484636387</v>
+        <v>7.885440870290446</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028809</v>
       </c>
       <c r="G16">
-        <v>2.016256098455514</v>
+        <v>30.47173852475477</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>10.42317127881483</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>16.66264699709631</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.71324701271945</v>
+        <v>13.82831137719147</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.786999074091552</v>
       </c>
       <c r="M16">
-        <v>23.80915374039162</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>14.874548860822</v>
+        <v>12.31908208877189</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.56269701990254</v>
+        <v>16.97585809924418</v>
       </c>
       <c r="C17">
-        <v>20.31305545665392</v>
+        <v>6.58605309090283</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.3061922593804</v>
+        <v>7.814204490609898</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>2.022531832716432</v>
+        <v>30.25078868470938</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>10.43384294938556</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>16.67811714100989</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.09180585904021</v>
+        <v>13.54360893712667</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.691445520724835</v>
       </c>
       <c r="M17">
-        <v>23.23790080319024</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>14.87320537364863</v>
+        <v>12.42005967412175</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.15280897563008</v>
+        <v>16.75781334749345</v>
       </c>
       <c r="C18">
-        <v>20.0173876349988</v>
+        <v>6.531940449311594</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.12699473487097</v>
+        <v>7.773412965333596</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239618</v>
       </c>
       <c r="G18">
-        <v>2.026132735204329</v>
+        <v>30.12738966677675</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10.44089210988024</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>16.68874077380976</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.73144138351804</v>
+        <v>13.37747989811793</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.636417865441956</v>
       </c>
       <c r="M18">
-        <v>22.90668733984791</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>14.87369186003652</v>
+        <v>12.47833134676056</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.01344261957972</v>
+        <v>16.68343755437216</v>
       </c>
       <c r="C19">
-        <v>19.91688682539431</v>
+        <v>6.513537166422589</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.06608587548348</v>
+        <v>7.759633757832887</v>
       </c>
       <c r="F19">
-        <v>36.1517249415763</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>2.027350744937176</v>
+        <v>30.08623709815962</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10.44343255442801</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>16.69262862144797</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.60890821845711</v>
+        <v>13.32082206442712</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.617776180931747</v>
       </c>
       <c r="M19">
-        <v>22.79407392204665</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>14.8740649047416</v>
+        <v>12.49809529335317</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.63828435697902</v>
+        <v>17.01595269675016</v>
       </c>
       <c r="C20">
-        <v>20.36759390465278</v>
+        <v>6.596029287453387</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.33924793448788</v>
+        <v>7.82176912288441</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>2.021864747993942</v>
+        <v>30.27392661914249</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>10.43261197727399</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>16.67629040923689</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.15825824203166</v>
+        <v>13.57416154958307</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.701624697020815</v>
       </c>
       <c r="M20">
-        <v>23.29898138789236</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>14.87321614833732</v>
+        <v>12.40929084443274</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.69969467513411</v>
+        <v>18.09521137158455</v>
       </c>
       <c r="C21">
-        <v>21.85684661029584</v>
+        <v>6.867490452078721</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.24202991325749</v>
+        <v>8.032643491057323</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.003303779688979</v>
+        <v>30.94890602260005</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.40735012195265</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>16.64242721385516</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.97037271608786</v>
+        <v>14.39706752073375</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.982438622745007</v>
       </c>
       <c r="M21">
-        <v>24.96509475450141</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>14.88603809894698</v>
+        <v>12.1131247947567</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.02224524134009</v>
+        <v>18.77263353857784</v>
       </c>
       <c r="C22">
-        <v>22.81444045882476</v>
+        <v>7.040649324552678</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.82267999753865</v>
+        <v>8.171892866530115</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>1.991017162356021</v>
+        <v>31.42384338243349</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>10.39959144258196</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>16.63692658582907</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>28.13295201517805</v>
+        <v>14.91405380705089</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.16508571779268</v>
       </c>
       <c r="M22">
-        <v>26.03454490357495</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>14.90763098771626</v>
+        <v>11.92099599202943</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.3183815815626</v>
+        <v>18.41361385324018</v>
       </c>
       <c r="C23">
-        <v>22.304584742238</v>
+        <v>6.948620327596244</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.51350614625987</v>
+        <v>8.097450548649409</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>1.997593256765541</v>
+        <v>31.16722338913131</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.40289996439004</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>16.63827823439716</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.51421800972826</v>
+        <v>14.64001793025054</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.067696327945592</v>
       </c>
       <c r="M23">
-        <v>25.46531901504883</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>14.89479069014678</v>
+        <v>12.02342164253222</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.60412222487911</v>
+        <v>16.99783616836062</v>
       </c>
       <c r="C24">
-        <v>20.34294437374437</v>
+        <v>6.591520608545941</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.32430784363761</v>
+        <v>7.818348642096962</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.022166358310512</v>
+        <v>30.26345466991386</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10.43316566022598</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>16.67711090109683</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.12822478808537</v>
+        <v>13.56035634761533</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.697022976737582</v>
       </c>
       <c r="M24">
-        <v>23.27137559593184</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>14.87320737699944</v>
+        <v>12.41415874933826</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.54839480429088</v>
+        <v>15.34854762669605</v>
       </c>
       <c r="C25">
-        <v>18.14147012713423</v>
+        <v>6.188168499071199</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.99026865800065</v>
+        <v>7.524369716240973</v>
       </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.048367925184839</v>
+        <v>29.42872484483364</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.50030399570075</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>16.78428186421248</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.4409285496213</v>
+        <v>12.30478171341658</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.294822621681289</v>
       </c>
       <c r="M25">
-        <v>20.80218198574855</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>14.89727662328894</v>
+        <v>12.84311446199069</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.09998010265358</v>
+        <v>13.4015549233451</v>
       </c>
       <c r="C2">
-        <v>5.875880417281303</v>
+        <v>6.11502654280375</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.315058680251961</v>
+        <v>11.02526790736374</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>28.92790737560516</v>
+        <v>38.8828758685366</v>
       </c>
       <c r="H2">
-        <v>10.57618025369351</v>
+        <v>16.8871261757979</v>
       </c>
       <c r="I2">
-        <v>16.91287334936537</v>
+        <v>26.20550565969513</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.30038218561383</v>
+        <v>10.88976906574689</v>
       </c>
       <c r="L2">
-        <v>6.998429475176731</v>
+        <v>9.970671698646735</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.16680659631922</v>
+        <v>20.14734012728668</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.23917434866623</v>
+        <v>13.18567586768959</v>
       </c>
       <c r="C3">
-        <v>5.655025472883682</v>
+        <v>6.041231258576162</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.178228142620179</v>
+        <v>11.02905030871177</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>28.65538900741065</v>
+        <v>38.97400841493282</v>
       </c>
       <c r="H3">
-        <v>10.6425831295635</v>
+        <v>16.94038787306201</v>
       </c>
       <c r="I3">
-        <v>17.02794639626002</v>
+        <v>26.29789182702483</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.56913122900859</v>
+        <v>10.74732747256997</v>
       </c>
       <c r="L3">
-        <v>6.798474188527121</v>
+        <v>9.959120296097726</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.39172440868681</v>
+        <v>20.21319274475371</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.68661092357162</v>
+        <v>13.05421562322823</v>
       </c>
       <c r="C4">
-        <v>5.515039852921523</v>
+        <v>5.994678695329648</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.096880595795121</v>
+        <v>11.03321825506279</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>28.5194781463831</v>
+        <v>39.04097569701341</v>
       </c>
       <c r="H4">
-        <v>10.69027149260005</v>
+        <v>16.97580167411344</v>
       </c>
       <c r="I4">
-        <v>17.11141353826478</v>
+        <v>26.35942141664308</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.09501866073914</v>
+        <v>10.66114578053583</v>
       </c>
       <c r="L4">
-        <v>6.676553483257551</v>
+        <v>9.95379551555083</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.53276033133814</v>
+        <v>20.25549693736497</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.4555403249436</v>
+        <v>13.00098942836069</v>
       </c>
       <c r="C5">
-        <v>5.456924719257175</v>
+        <v>5.975403827462253</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.064429791107907</v>
+        <v>11.03538152614433</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>28.47173744437907</v>
+        <v>39.07102369296896</v>
       </c>
       <c r="H5">
-        <v>10.71137700431554</v>
+        <v>16.99091442369053</v>
       </c>
       <c r="I5">
-        <v>17.14851159416072</v>
+        <v>26.3857018323407</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.895477379836782</v>
+        <v>10.62638893579598</v>
       </c>
       <c r="L5">
-        <v>6.627148911384011</v>
+        <v>9.952072213318669</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.59099914799567</v>
+        <v>20.27320800011668</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.41682010954511</v>
+        <v>12.99217415936688</v>
       </c>
       <c r="C6">
-        <v>5.447211161434823</v>
+        <v>5.972185107227752</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.059084377233167</v>
+        <v>11.03576882644433</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>28.46426393077725</v>
+        <v>39.0761794046566</v>
       </c>
       <c r="H6">
-        <v>10.71498064452912</v>
+        <v>16.99346502545126</v>
       </c>
       <c r="I6">
-        <v>17.15485409972737</v>
+        <v>26.3901385098393</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.861960549833942</v>
+        <v>10.62064070857563</v>
       </c>
       <c r="L6">
-        <v>6.618964115896452</v>
+        <v>9.951813087768782</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.6007166718365</v>
+        <v>20.27617744379844</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.68351827911875</v>
+        <v>13.0534963060932</v>
       </c>
       <c r="C7">
-        <v>5.514260377922418</v>
+        <v>5.9944199692057</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.096440086289585</v>
+        <v>11.03324554689365</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>28.51880370153782</v>
+        <v>39.04136978138612</v>
       </c>
       <c r="H7">
-        <v>10.69054944508234</v>
+        <v>16.9760027316916</v>
       </c>
       <c r="I7">
-        <v>17.1119015433525</v>
+        <v>26.35977095991334</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.09235325489865</v>
+        <v>10.66067551378595</v>
       </c>
       <c r="L7">
-        <v>6.675885978484854</v>
+        <v>9.953770463762272</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.53354262546767</v>
+        <v>20.25573388292451</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.8082358529534</v>
+        <v>13.32693590694099</v>
       </c>
       <c r="C8">
-        <v>5.800655738053736</v>
+        <v>6.089844416390566</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.267343353096751</v>
+        <v>11.02618951681757</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>28.82727537019537</v>
+        <v>38.91200678429124</v>
       </c>
       <c r="H8">
-        <v>10.59759906180726</v>
+        <v>16.9049279580457</v>
       </c>
       <c r="I8">
-        <v>16.94980712342215</v>
+        <v>26.23636246548793</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.05344700442303</v>
+        <v>10.84041501308356</v>
       </c>
       <c r="L8">
-        <v>6.92934586236063</v>
+        <v>9.96632317514627</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.24376592357577</v>
+        <v>20.16965876851581</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.92065724812694</v>
+        <v>13.86871264355566</v>
       </c>
       <c r="C9">
-        <v>6.326446761043409</v>
+        <v>6.266779678781358</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.622360950449385</v>
+        <v>11.02695898836653</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>29.69173804596466</v>
+        <v>38.74613587819498</v>
       </c>
       <c r="H9">
-        <v>10.47337168566462</v>
+        <v>16.78707554656292</v>
       </c>
       <c r="I9">
-        <v>16.74004194787463</v>
+        <v>26.03254064089143</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.74003578614228</v>
+        <v>11.20118143443381</v>
       </c>
       <c r="L9">
-        <v>7.430474824497546</v>
+        <v>10.00486472763095</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.69749061499202</v>
+        <v>20.01564029302036</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.39160260694547</v>
+        <v>14.26607803768896</v>
       </c>
       <c r="C10">
-        <v>6.689881194368866</v>
+        <v>6.390128721360526</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.893593398651856</v>
+        <v>11.03637081601564</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>30.49745338228501</v>
+        <v>38.67834208772643</v>
       </c>
       <c r="H10">
-        <v>10.42207915235768</v>
+        <v>16.71363233203923</v>
       </c>
       <c r="I10">
-        <v>16.66111981027944</v>
+        <v>25.90615578054807</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.86047704890191</v>
+        <v>11.4688240788691</v>
       </c>
       <c r="L10">
-        <v>7.797892194533261</v>
+        <v>10.04151916000462</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.30758495335023</v>
+        <v>19.91139529250402</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.02691248026021</v>
+        <v>14.44587248967711</v>
       </c>
       <c r="C11">
-        <v>6.850148296123061</v>
+        <v>6.444713939875925</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.018892918705349</v>
+        <v>11.0425576965682</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>30.90321282617059</v>
+        <v>38.65933623471048</v>
       </c>
       <c r="H11">
-        <v>10.40848717562798</v>
+        <v>16.68307948644117</v>
       </c>
       <c r="I11">
-        <v>16.64367227878142</v>
+        <v>25.85375159873905</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.34496374754003</v>
+        <v>11.59062598638763</v>
       </c>
       <c r="L11">
-        <v>7.964289607511821</v>
+        <v>10.05996671368971</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.13222794165037</v>
+        <v>19.86588656115339</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.26269207662679</v>
+        <v>14.51375042182671</v>
       </c>
       <c r="C12">
-        <v>6.910107304875216</v>
+        <v>6.465157391829121</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.066588525552676</v>
+        <v>11.04517285016187</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>31.06265404586717</v>
+        <v>38.65384674153283</v>
       </c>
       <c r="H12">
-        <v>10.40483373812032</v>
+        <v>16.67192114298235</v>
       </c>
       <c r="I12">
-        <v>16.63990313597516</v>
+        <v>25.83464086328859</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.5248504062875</v>
+        <v>11.63671414639799</v>
       </c>
       <c r="L12">
-        <v>8.027152104928678</v>
+        <v>10.06720362921846</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.06607341556118</v>
+        <v>19.8489271581068</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.21212504054989</v>
+        <v>14.4991419079786</v>
       </c>
       <c r="C13">
-        <v>6.897226548876981</v>
+        <v>6.460764726926056</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.056305840249681</v>
+        <v>11.04459754729916</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>31.02805590150539</v>
+        <v>38.65495297427506</v>
       </c>
       <c r="H13">
-        <v>10.40555262590209</v>
+        <v>16.67430598807794</v>
       </c>
       <c r="I13">
-        <v>16.64058567662553</v>
+        <v>25.83872404679891</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.48626693565974</v>
+        <v>11.62679048784384</v>
       </c>
       <c r="L13">
-        <v>8.013620749169311</v>
+        <v>10.06563391940815</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.08031055446908</v>
+        <v>19.85256751374565</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.04640598534497</v>
+        <v>14.45146135688469</v>
       </c>
       <c r="C14">
-        <v>6.855095802253825</v>
+        <v>6.446400420427797</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.022812058580648</v>
+        <v>11.04276739944107</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>30.91621335119775</v>
+        <v>38.65885035813407</v>
       </c>
       <c r="H14">
-        <v>10.40815612671433</v>
+        <v>16.6821532355115</v>
       </c>
       <c r="I14">
-        <v>16.64330423769396</v>
+        <v>25.85216463446851</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.35983455546873</v>
+        <v>11.59441864107547</v>
       </c>
       <c r="L14">
-        <v>7.96946453827896</v>
+        <v>10.06055708664727</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.12678061099956</v>
+        <v>19.86448582158265</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.94427540635661</v>
+        <v>14.42222683216311</v>
       </c>
       <c r="C15">
-        <v>6.829194348853089</v>
+        <v>6.437572124363617</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.002327578620196</v>
+        <v>11.04168179184578</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>30.84846451768549</v>
+        <v>38.66146015466006</v>
       </c>
       <c r="H15">
-        <v>10.40994817126164</v>
+        <v>16.68701348797284</v>
       </c>
       <c r="I15">
-        <v>16.64534457774409</v>
+        <v>25.8604929711348</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.28192657931594</v>
+        <v>11.57458406655913</v>
       </c>
       <c r="L15">
-        <v>7.942397098684624</v>
+        <v>10.05747998081523</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.15527609952781</v>
+        <v>19.87182174330561</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.34940844480842</v>
+        <v>14.25430276041654</v>
       </c>
       <c r="C16">
-        <v>6.679305159531459</v>
+        <v>6.386530100266046</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.885440870290446</v>
+        <v>11.03600469089924</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>30.47173852475477</v>
+        <v>38.6798228255916</v>
       </c>
       <c r="H16">
-        <v>10.42317127881483</v>
+        <v>16.71568656605718</v>
       </c>
       <c r="I16">
-        <v>16.66264699709631</v>
+        <v>25.90968307429138</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.82831137719147</v>
+        <v>11.46086136286742</v>
       </c>
       <c r="L16">
-        <v>7.786999074091552</v>
+        <v>10.04034893589762</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.31908208877189</v>
+        <v>19.9144077751491</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.97585809924418</v>
+        <v>14.15099008034059</v>
       </c>
       <c r="C17">
-        <v>6.58605309090283</v>
+        <v>6.354821171269869</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.814204490609898</v>
+        <v>11.03300885338268</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>30.25078868470938</v>
+        <v>38.69412325525731</v>
       </c>
       <c r="H17">
-        <v>10.43384294938556</v>
+        <v>16.73400866601941</v>
       </c>
       <c r="I17">
-        <v>16.67811714100989</v>
+        <v>25.94116429738535</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.54360893712667</v>
+        <v>11.39107820055615</v>
       </c>
       <c r="L17">
-        <v>7.691445520724835</v>
+        <v>10.03029117779945</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.42005967412175</v>
+        <v>19.94102192374925</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.75781334749345</v>
+        <v>14.09147999151809</v>
       </c>
       <c r="C18">
-        <v>6.531940449311594</v>
+        <v>6.336439730791044</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.773412965333596</v>
+        <v>11.03146518311025</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>30.12738966677675</v>
+        <v>38.70346206590098</v>
       </c>
       <c r="H18">
-        <v>10.44089210988024</v>
+        <v>16.74481592027132</v>
       </c>
       <c r="I18">
-        <v>16.68874077380976</v>
+        <v>25.95975035054745</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.37747989811793</v>
+        <v>11.35094796820195</v>
       </c>
       <c r="L18">
-        <v>7.636417865441956</v>
+        <v>10.02467337263653</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.47833134676056</v>
+        <v>19.95650980076327</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.68343755437216</v>
+        <v>14.07131797729438</v>
       </c>
       <c r="C19">
-        <v>6.513537166422589</v>
+        <v>6.33019170319066</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.759633757832887</v>
+        <v>11.03097339284494</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>30.08623709815962</v>
+        <v>38.70681508584219</v>
       </c>
       <c r="H19">
-        <v>10.44343255442801</v>
+        <v>16.74852123234343</v>
       </c>
       <c r="I19">
-        <v>16.69262862144797</v>
+        <v>25.96612546262521</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.32082206442712</v>
+        <v>11.33736311730725</v>
       </c>
       <c r="L19">
-        <v>7.617776180931747</v>
+        <v>10.02280009904402</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.49809529335317</v>
+        <v>19.96178470580442</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.01595269675016</v>
+        <v>14.16199742751808</v>
       </c>
       <c r="C20">
-        <v>6.596029287453387</v>
+        <v>6.35821152547742</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.82176912288441</v>
+        <v>11.03330920394478</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>30.27392661914249</v>
+        <v>38.69248565191204</v>
       </c>
       <c r="H20">
-        <v>10.43261197727399</v>
+        <v>16.73203041649566</v>
       </c>
       <c r="I20">
-        <v>16.67629040923689</v>
+        <v>25.93776349133193</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.57416154958307</v>
+        <v>11.39850630560912</v>
       </c>
       <c r="L20">
-        <v>7.701624697020815</v>
+        <v>10.03134457021606</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.40929084443274</v>
+        <v>19.93817016960327</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.09521137158455</v>
+        <v>14.46547241021326</v>
       </c>
       <c r="C21">
-        <v>6.867490452078721</v>
+        <v>6.450625776455253</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.032643491057323</v>
+        <v>11.04329758189122</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>30.94890602260005</v>
+        <v>38.65765921677614</v>
       </c>
       <c r="H21">
-        <v>10.40735012195265</v>
+        <v>16.67983714030681</v>
       </c>
       <c r="I21">
-        <v>16.64242721385516</v>
+        <v>25.84819688427418</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.39706752073375</v>
+        <v>11.60392833803995</v>
       </c>
       <c r="L21">
-        <v>7.982438622745007</v>
+        <v>10.06204148860879</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.1131247947567</v>
+        <v>19.8609777060352</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.77263353857784</v>
+        <v>14.66257916851855</v>
       </c>
       <c r="C22">
-        <v>7.040649324552678</v>
+        <v>6.509698808118721</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.171892866530115</v>
+        <v>11.0514119286108</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>31.42384338243349</v>
+        <v>38.64485327999403</v>
       </c>
       <c r="H22">
-        <v>10.39959144258196</v>
+        <v>16.64812376497127</v>
       </c>
       <c r="I22">
-        <v>16.63692658582907</v>
+        <v>25.79393668607801</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.91405380705089</v>
+        <v>11.73795712101265</v>
       </c>
       <c r="L22">
-        <v>8.16508571779268</v>
+        <v>10.08356610899955</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.92099599202943</v>
+        <v>19.81212309071585</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.41361385324018</v>
+        <v>14.55751368354417</v>
       </c>
       <c r="C23">
-        <v>6.948620327596244</v>
+        <v>6.478293969581383</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.097450548649409</v>
+        <v>11.04693659638738</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>31.16722338913131</v>
+        <v>38.65077551059991</v>
       </c>
       <c r="H23">
-        <v>10.40289996439004</v>
+        <v>16.66483019877992</v>
       </c>
       <c r="I23">
-        <v>16.63827823439716</v>
+        <v>25.82250445774563</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.64001793025054</v>
+        <v>11.66645798189715</v>
       </c>
       <c r="L23">
-        <v>8.067696327945592</v>
+        <v>10.07194551688718</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.02342164253222</v>
+        <v>19.83805219084493</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.99783616836062</v>
+        <v>14.157021356587</v>
       </c>
       <c r="C24">
-        <v>6.591520608545941</v>
+        <v>6.356679217883464</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.818348642096962</v>
+        <v>11.03317285878212</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>30.26345466991386</v>
+        <v>38.69322253247798</v>
       </c>
       <c r="H24">
-        <v>10.43316566022598</v>
+        <v>16.73292393076753</v>
       </c>
       <c r="I24">
-        <v>16.67711090109683</v>
+        <v>25.93929947863553</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.56035634761533</v>
+        <v>11.39514809017497</v>
       </c>
       <c r="L24">
-        <v>7.697022976737582</v>
+        <v>10.03086781871994</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.41415874933826</v>
+        <v>19.93945886488543</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.34854762669605</v>
+        <v>13.72197795521119</v>
       </c>
       <c r="C25">
-        <v>6.188168499071199</v>
+        <v>6.220050662217811</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.524369716240973</v>
+        <v>11.02519241755807</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>29.42872484483364</v>
+        <v>38.7815478384278</v>
       </c>
       <c r="H25">
-        <v>10.50030399570075</v>
+        <v>16.81665120232427</v>
       </c>
       <c r="I25">
-        <v>16.78428186421248</v>
+        <v>26.08358327154827</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.30478171341658</v>
+        <v>11.10295227773517</v>
       </c>
       <c r="L25">
-        <v>7.294822621681289</v>
+        <v>9.992961891050346</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.84311446199069</v>
+        <v>20.05573447111166</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.4015549233451</v>
+        <v>14.09998010265362</v>
       </c>
       <c r="C2">
-        <v>6.11502654280375</v>
+        <v>5.875880417281282</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.02526790736374</v>
+        <v>7.315058680252011</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>38.8828758685366</v>
+        <v>28.92790737560556</v>
       </c>
       <c r="H2">
-        <v>16.8871261757979</v>
+        <v>10.57618025369363</v>
       </c>
       <c r="I2">
-        <v>26.20550565969513</v>
+        <v>16.91287334936556</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.88976906574689</v>
+        <v>11.30038218561377</v>
       </c>
       <c r="L2">
-        <v>9.970671698646735</v>
+        <v>6.99842947517681</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.14734012728668</v>
+        <v>13.16680659631938</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.18567586768959</v>
+        <v>13.23917434866624</v>
       </c>
       <c r="C3">
-        <v>6.041231258576162</v>
+        <v>5.655025472883781</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.02905030871177</v>
+        <v>7.178228142620282</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>38.97400841493282</v>
+        <v>28.65538900741068</v>
       </c>
       <c r="H3">
-        <v>16.94038787306201</v>
+        <v>10.6425831295632</v>
       </c>
       <c r="I3">
-        <v>26.29789182702483</v>
+        <v>17.02794639625995</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.74732747256997</v>
+        <v>10.56913122900865</v>
       </c>
       <c r="L3">
-        <v>9.959120296097726</v>
+        <v>6.798474188527163</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.21319274475371</v>
+        <v>13.39172440868681</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.05421562322823</v>
+        <v>12.68661092357167</v>
       </c>
       <c r="C4">
-        <v>5.994678695329648</v>
+        <v>5.515039852921393</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.03321825506279</v>
+        <v>7.096880595795076</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>39.04097569701341</v>
+        <v>28.51947814638315</v>
       </c>
       <c r="H4">
-        <v>16.97580167411344</v>
+        <v>10.69027149260012</v>
       </c>
       <c r="I4">
-        <v>26.35942141664308</v>
+        <v>17.11141353826476</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.66114578053583</v>
+        <v>10.09501866073914</v>
       </c>
       <c r="L4">
-        <v>9.95379551555083</v>
+        <v>6.676553483257614</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.25549693736497</v>
+        <v>13.53276033133811</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.00098942836069</v>
+        <v>12.4555403249436</v>
       </c>
       <c r="C5">
-        <v>5.975403827462253</v>
+        <v>5.456924719257175</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.03538152614433</v>
+        <v>7.064429791107854</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>39.07102369296896</v>
+        <v>28.47173744437907</v>
       </c>
       <c r="H5">
-        <v>16.99091442369053</v>
+        <v>10.71137700431555</v>
       </c>
       <c r="I5">
-        <v>26.3857018323407</v>
+        <v>17.14851159416075</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.62638893579598</v>
+        <v>9.8954773798368</v>
       </c>
       <c r="L5">
-        <v>9.952072213318669</v>
+        <v>6.627148911383943</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.27320800011668</v>
+        <v>13.59099914799567</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.99217415936688</v>
+        <v>12.41682010954511</v>
       </c>
       <c r="C6">
-        <v>5.972185107227752</v>
+        <v>5.447211161434923</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.03576882644433</v>
+        <v>7.059084377233177</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>39.0761794046566</v>
+        <v>28.46426393077697</v>
       </c>
       <c r="H6">
-        <v>16.99346502545126</v>
+        <v>10.71498064452894</v>
       </c>
       <c r="I6">
-        <v>26.3901385098393</v>
+        <v>17.15485409972714</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.62064070857563</v>
+        <v>9.861960549833986</v>
       </c>
       <c r="L6">
-        <v>9.951813087768782</v>
+        <v>6.618964115896407</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.27617744379844</v>
+        <v>13.60071667183633</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.0534963060932</v>
+        <v>12.68351827911876</v>
       </c>
       <c r="C7">
-        <v>5.9944199692057</v>
+        <v>5.514260377922417</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.03324554689365</v>
+        <v>7.096440086289628</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>39.04136978138612</v>
+        <v>28.51880370153764</v>
       </c>
       <c r="H7">
-        <v>16.9760027316916</v>
+        <v>10.69054944508239</v>
       </c>
       <c r="I7">
-        <v>26.35977095991334</v>
+        <v>17.1119015433525</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.66067551378595</v>
+        <v>10.09235325489866</v>
       </c>
       <c r="L7">
-        <v>9.953770463762272</v>
+        <v>6.675885978484872</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.25573388292451</v>
+        <v>13.53354262546771</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.32693590694099</v>
+        <v>13.80823585295339</v>
       </c>
       <c r="C8">
-        <v>6.089844416390566</v>
+        <v>5.800655738053608</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.02618951681757</v>
+        <v>7.267343353096754</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>38.91200678429124</v>
+        <v>28.82727537019515</v>
       </c>
       <c r="H8">
-        <v>16.9049279580457</v>
+        <v>10.59759906180726</v>
       </c>
       <c r="I8">
-        <v>26.23636246548793</v>
+        <v>16.94980712342209</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.84041501308356</v>
+        <v>11.05344700442305</v>
       </c>
       <c r="L8">
-        <v>9.96632317514627</v>
+        <v>6.929345862360623</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.16965876851581</v>
+        <v>13.24376592357573</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.86871264355566</v>
+        <v>15.92065724812698</v>
       </c>
       <c r="C9">
-        <v>6.266779678781358</v>
+        <v>6.326446761043295</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.02695898836653</v>
+        <v>7.622360950449394</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>38.74613587819498</v>
+        <v>29.6917380459646</v>
       </c>
       <c r="H9">
-        <v>16.78707554656292</v>
+        <v>10.47337168566469</v>
       </c>
       <c r="I9">
-        <v>26.03254064089143</v>
+        <v>16.74004194787458</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.20118143443381</v>
+        <v>12.74003578614232</v>
       </c>
       <c r="L9">
-        <v>10.00486472763095</v>
+        <v>7.430474824497595</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.01564029302036</v>
+        <v>12.69749061499199</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.26607803768896</v>
+        <v>17.39160260694548</v>
       </c>
       <c r="C10">
-        <v>6.390128721360526</v>
+        <v>6.689881194368643</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.03637081601564</v>
+        <v>7.893593398651869</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>38.67834208772643</v>
+        <v>30.49745338228533</v>
       </c>
       <c r="H10">
-        <v>16.71363233203923</v>
+        <v>10.42207915235785</v>
       </c>
       <c r="I10">
-        <v>25.90615578054807</v>
+        <v>16.66111981027967</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.4688240788691</v>
+        <v>13.86047704890186</v>
       </c>
       <c r="L10">
-        <v>10.04151916000462</v>
+        <v>7.797892194533315</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.91139529250402</v>
+        <v>12.30758495335037</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.44587248967711</v>
+        <v>18.02691248026024</v>
       </c>
       <c r="C11">
-        <v>6.444713939875925</v>
+        <v>6.850148296122955</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.0425576965682</v>
+        <v>8.018892918705355</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>38.65933623471048</v>
+        <v>30.90321282617059</v>
       </c>
       <c r="H11">
-        <v>16.68307948644117</v>
+        <v>10.408487175628</v>
       </c>
       <c r="I11">
-        <v>25.85375159873905</v>
+        <v>16.64367227878139</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.59062598638763</v>
+        <v>14.34496374754003</v>
       </c>
       <c r="L11">
-        <v>10.05996671368971</v>
+        <v>7.964289607511862</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.86588656115339</v>
+        <v>12.13222794165037</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.51375042182671</v>
+        <v>18.26269207662684</v>
       </c>
       <c r="C12">
-        <v>6.465157391829121</v>
+        <v>6.910107304875428</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.04517285016187</v>
+        <v>8.066588525552778</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>38.65384674153283</v>
+        <v>31.06265404586713</v>
       </c>
       <c r="H12">
-        <v>16.67192114298235</v>
+        <v>10.4048337381203</v>
       </c>
       <c r="I12">
-        <v>25.83464086328859</v>
+        <v>16.63990313597515</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.63671414639799</v>
+        <v>14.52485040628755</v>
       </c>
       <c r="L12">
-        <v>10.06720362921846</v>
+        <v>8.027152104928721</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.8489271581068</v>
+        <v>12.06607341556115</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.4991419079786</v>
+        <v>18.21212504054989</v>
       </c>
       <c r="C13">
-        <v>6.460764726926056</v>
+        <v>6.897226548877108</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.04459754729916</v>
+        <v>8.056305840249669</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>38.65495297427506</v>
+        <v>31.02805590150529</v>
       </c>
       <c r="H13">
-        <v>16.67430598807794</v>
+        <v>10.40555262590204</v>
       </c>
       <c r="I13">
-        <v>25.83872404679891</v>
+        <v>16.64058567662548</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.62679048784384</v>
+        <v>14.48626693565977</v>
       </c>
       <c r="L13">
-        <v>10.06563391940815</v>
+        <v>8.013620749169307</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.85256751374565</v>
+        <v>12.08031055446905</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.45146135688469</v>
+        <v>18.04640598534497</v>
       </c>
       <c r="C14">
-        <v>6.446400420427797</v>
+        <v>6.855095802253808</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.04276739944107</v>
+        <v>8.02281205858066</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>38.65885035813407</v>
+        <v>30.91621335119776</v>
       </c>
       <c r="H14">
-        <v>16.6821532355115</v>
+        <v>10.40815612671434</v>
       </c>
       <c r="I14">
-        <v>25.85216463446851</v>
+        <v>16.64330423769399</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.59441864107547</v>
+        <v>14.35983455546873</v>
       </c>
       <c r="L14">
-        <v>10.06055708664727</v>
+        <v>7.969464538278959</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.86448582158265</v>
+        <v>12.12678061099956</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.42222683216311</v>
+        <v>17.94427540635659</v>
       </c>
       <c r="C15">
-        <v>6.437572124363617</v>
+        <v>6.829194348853076</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.04168179184578</v>
+        <v>8.002327578620221</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>38.66146015466006</v>
+        <v>30.84846451768576</v>
       </c>
       <c r="H15">
-        <v>16.68701348797284</v>
+        <v>10.40994817126173</v>
       </c>
       <c r="I15">
-        <v>25.8604929711348</v>
+        <v>16.6453445777443</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.57458406655913</v>
+        <v>14.28192657931589</v>
       </c>
       <c r="L15">
-        <v>10.05747998081523</v>
+        <v>7.942397098684624</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.87182174330561</v>
+        <v>12.1552760995279</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.25430276041654</v>
+        <v>17.3494084448084</v>
       </c>
       <c r="C16">
-        <v>6.386530100266046</v>
+        <v>6.67930515953154</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.03600469089924</v>
+        <v>7.885440870290362</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>38.6798228255916</v>
+        <v>30.47173852475487</v>
       </c>
       <c r="H16">
-        <v>16.71568656605718</v>
+        <v>10.42317127881483</v>
       </c>
       <c r="I16">
-        <v>25.90968307429138</v>
+        <v>16.66264699709634</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.46086136286742</v>
+        <v>13.82831137719144</v>
       </c>
       <c r="L16">
-        <v>10.04034893589762</v>
+        <v>7.786999074091469</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.9144077751491</v>
+        <v>12.31908208877189</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.15099008034059</v>
+        <v>16.97585809924417</v>
       </c>
       <c r="C17">
-        <v>6.354821171269869</v>
+        <v>6.58605309090291</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.03300885338268</v>
+        <v>7.814204490609907</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>38.69412325525731</v>
+        <v>30.25078868470962</v>
       </c>
       <c r="H17">
-        <v>16.73400866601941</v>
+        <v>10.43384294938562</v>
       </c>
       <c r="I17">
-        <v>25.94116429738535</v>
+        <v>16.67811714101006</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.39107820055615</v>
+        <v>13.54360893712664</v>
       </c>
       <c r="L17">
-        <v>10.03029117779945</v>
+        <v>7.691445520724806</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.94102192374925</v>
+        <v>12.42005967412185</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.09147999151809</v>
+        <v>16.75781334749345</v>
       </c>
       <c r="C18">
-        <v>6.336439730791044</v>
+        <v>6.531940449311469</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.03146518311025</v>
+        <v>7.773412965333518</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>38.70346206590098</v>
+        <v>30.12738966677696</v>
       </c>
       <c r="H18">
-        <v>16.74481592027132</v>
+        <v>10.44089210988026</v>
       </c>
       <c r="I18">
-        <v>25.95975035054745</v>
+        <v>16.68874077380987</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.35094796820195</v>
+        <v>13.37747989811788</v>
       </c>
       <c r="L18">
-        <v>10.02467337263653</v>
+        <v>7.636417865441947</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.95650980076327</v>
+        <v>12.47833134676062</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.07131797729438</v>
+        <v>16.68343755437221</v>
       </c>
       <c r="C19">
-        <v>6.33019170319066</v>
+        <v>6.513537166422704</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.03097339284494</v>
+        <v>7.75963375783298</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>38.70681508584219</v>
+        <v>30.08623709815934</v>
       </c>
       <c r="H19">
-        <v>16.74852123234343</v>
+        <v>10.44343255442796</v>
       </c>
       <c r="I19">
-        <v>25.96612546262521</v>
+        <v>16.69262862144783</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.33736311730725</v>
+        <v>13.32082206442716</v>
       </c>
       <c r="L19">
-        <v>10.02280009904402</v>
+        <v>7.617776180931749</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.96178470580442</v>
+        <v>12.49809529335304</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.16199742751808</v>
+        <v>17.01595269675014</v>
       </c>
       <c r="C20">
-        <v>6.35821152547742</v>
+        <v>6.596029287453387</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.03330920394478</v>
+        <v>7.821769122884397</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>38.69248565191204</v>
+        <v>30.27392661914266</v>
       </c>
       <c r="H20">
-        <v>16.73203041649566</v>
+        <v>10.43261197727405</v>
       </c>
       <c r="I20">
-        <v>25.93776349133193</v>
+        <v>16.67629040923696</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.39850630560912</v>
+        <v>13.57416154958304</v>
       </c>
       <c r="L20">
-        <v>10.03134457021606</v>
+        <v>7.701624697020809</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.93817016960327</v>
+        <v>12.40929084443274</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.46547241021326</v>
+        <v>18.09521137158452</v>
       </c>
       <c r="C21">
-        <v>6.450625776455253</v>
+        <v>6.867490452078709</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.04329758189122</v>
+        <v>8.032643491057385</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>38.65765921677614</v>
+        <v>30.94890602260024</v>
       </c>
       <c r="H21">
-        <v>16.67983714030681</v>
+        <v>10.40735012195273</v>
       </c>
       <c r="I21">
-        <v>25.84819688427418</v>
+        <v>16.64242721385532</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.60392833803995</v>
+        <v>14.39706752073371</v>
       </c>
       <c r="L21">
-        <v>10.06204148860879</v>
+        <v>7.982438622745031</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.8609777060352</v>
+        <v>12.11312479475687</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.66257916851855</v>
+        <v>18.77263353857784</v>
       </c>
       <c r="C22">
-        <v>6.509698808118721</v>
+        <v>7.04064932455279</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.0514119286108</v>
+        <v>8.171892866530113</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>38.64485327999403</v>
+        <v>31.42384338243347</v>
       </c>
       <c r="H22">
-        <v>16.64812376497127</v>
+        <v>10.39959144258197</v>
       </c>
       <c r="I22">
-        <v>25.79393668607801</v>
+        <v>16.63692658582909</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.73795712101265</v>
+        <v>14.91405380705088</v>
       </c>
       <c r="L22">
-        <v>10.08356610899955</v>
+        <v>8.165085717792643</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.81212309071585</v>
+        <v>11.9209959920294</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.55751368354417</v>
+        <v>18.41361385324012</v>
       </c>
       <c r="C23">
-        <v>6.478293969581383</v>
+        <v>6.948620327596028</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.04693659638738</v>
+        <v>8.097450548649343</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>38.65077551059991</v>
+        <v>31.16722338913157</v>
       </c>
       <c r="H23">
-        <v>16.66483019877992</v>
+        <v>10.40289996439009</v>
       </c>
       <c r="I23">
-        <v>25.82250445774563</v>
+        <v>16.6382782343973</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.66645798189715</v>
+        <v>14.64001793025046</v>
       </c>
       <c r="L23">
-        <v>10.07194551688718</v>
+        <v>8.067696327945601</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.83805219084493</v>
+        <v>12.02342164253229</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.157021356587</v>
+        <v>16.9978361683606</v>
       </c>
       <c r="C24">
-        <v>6.356679217883464</v>
+        <v>6.591520608545929</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.03317285878212</v>
+        <v>7.818348642096895</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>38.69322253247798</v>
+        <v>30.26345466991391</v>
       </c>
       <c r="H24">
-        <v>16.73292393076753</v>
+        <v>10.43316566022592</v>
       </c>
       <c r="I24">
-        <v>25.93929947863553</v>
+        <v>16.6771109010968</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.39514809017497</v>
+        <v>13.56035634761531</v>
       </c>
       <c r="L24">
-        <v>10.03086781871994</v>
+        <v>7.697022976737548</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.93945886488543</v>
+        <v>12.41415874933823</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.72197795521119</v>
+        <v>15.34854762669601</v>
       </c>
       <c r="C25">
-        <v>6.220050662217811</v>
+        <v>6.188168499071282</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.02519241755807</v>
+        <v>7.5243697162411</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>38.7815478384278</v>
+        <v>29.42872484483385</v>
       </c>
       <c r="H25">
-        <v>16.81665120232427</v>
+        <v>10.50030399570082</v>
       </c>
       <c r="I25">
-        <v>26.08358327154827</v>
+        <v>16.78428186421264</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.10295227773517</v>
+        <v>12.30478171341655</v>
       </c>
       <c r="L25">
-        <v>9.992961891050346</v>
+        <v>7.294822621681321</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.05573447111166</v>
+        <v>12.84311446199073</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.09998010265362</v>
+        <v>11.82171250458621</v>
       </c>
       <c r="C2">
-        <v>5.875880417281282</v>
+        <v>7.701105329467557</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.315058680252011</v>
+        <v>15.25468741206958</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>28.92790737560556</v>
+        <v>27.85724467090636</v>
       </c>
       <c r="H2">
-        <v>10.57618025369363</v>
+        <v>1.697966968524022</v>
       </c>
       <c r="I2">
-        <v>16.91287334936556</v>
+        <v>2.860348556211639</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.30393306837471</v>
       </c>
       <c r="K2">
-        <v>11.30038218561377</v>
+        <v>15.7266930747605</v>
       </c>
       <c r="L2">
-        <v>6.99842947517681</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.90074662569462</v>
       </c>
       <c r="N2">
-        <v>13.16680659631938</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.42060638404586</v>
+      </c>
+      <c r="P2">
+        <v>13.15936943875629</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.23917434866624</v>
+        <v>11.05107735058079</v>
       </c>
       <c r="C3">
-        <v>5.655025472883781</v>
+        <v>7.221069757122923</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.178228142620282</v>
+        <v>14.34723893296077</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>28.65538900741068</v>
+        <v>27.33666997257618</v>
       </c>
       <c r="H3">
-        <v>10.6425831295632</v>
+        <v>1.904983677815714</v>
       </c>
       <c r="I3">
-        <v>17.02794639625995</v>
+        <v>3.013743465156148</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.29426754185923</v>
       </c>
       <c r="K3">
-        <v>10.56913122900865</v>
+        <v>15.72841065685009</v>
       </c>
       <c r="L3">
-        <v>6.798474188527163</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.24989876894448</v>
       </c>
       <c r="N3">
-        <v>13.39172440868681</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.62360003422527</v>
+      </c>
+      <c r="P3">
+        <v>13.30363042100359</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.68661092357167</v>
+        <v>10.54703194549386</v>
       </c>
       <c r="C4">
-        <v>5.515039852921393</v>
+        <v>6.913537922623032</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.096880595795076</v>
+        <v>13.76020563635779</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>28.51947814638315</v>
+        <v>27.02043701407607</v>
       </c>
       <c r="H4">
-        <v>10.69027149260012</v>
+        <v>2.036695184566749</v>
       </c>
       <c r="I4">
-        <v>17.11141353826476</v>
+        <v>3.112058625645379</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.2906781857432</v>
       </c>
       <c r="K4">
-        <v>10.09501866073914</v>
+        <v>15.73219845803631</v>
       </c>
       <c r="L4">
-        <v>6.676553483257614</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.827828606769565</v>
       </c>
       <c r="N4">
-        <v>13.53276033133811</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.1101790371563</v>
+      </c>
+      <c r="P4">
+        <v>13.39326148442723</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.4555403249436</v>
+        <v>10.32767907955093</v>
       </c>
       <c r="C5">
-        <v>5.456924719257175</v>
+        <v>6.791798715752265</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.064429791107854</v>
+        <v>13.51385701523488</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>28.47173744437907</v>
+        <v>26.87356137967282</v>
       </c>
       <c r="H5">
-        <v>10.71137700431555</v>
+        <v>2.091763429511546</v>
       </c>
       <c r="I5">
-        <v>17.14851159416075</v>
+        <v>3.156084975485666</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.28655163384033</v>
       </c>
       <c r="K5">
-        <v>9.8954773798368</v>
+        <v>15.72728228632101</v>
       </c>
       <c r="L5">
-        <v>6.627148911383943</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.648779427815054</v>
       </c>
       <c r="N5">
-        <v>13.59099914799567</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.89429365325727</v>
+      </c>
+      <c r="P5">
+        <v>13.42888602429254</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.41682010954511</v>
+        <v>10.28325132961944</v>
       </c>
       <c r="C6">
-        <v>5.447211161434923</v>
+        <v>6.77969866829032</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.059084377233177</v>
+        <v>13.472906594857</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>28.46426393077697</v>
+        <v>26.82607110256859</v>
       </c>
       <c r="H6">
-        <v>10.71498064452894</v>
+        <v>2.101248766841764</v>
       </c>
       <c r="I6">
-        <v>17.15485409972714</v>
+        <v>3.167200399555699</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.28194430170056</v>
       </c>
       <c r="K6">
-        <v>9.861960549833986</v>
+        <v>15.7178039115014</v>
       </c>
       <c r="L6">
-        <v>6.618964115896407</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.616949061370692</v>
       </c>
       <c r="N6">
-        <v>13.60071667183633</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.85719392113335</v>
+      </c>
+      <c r="P6">
+        <v>13.43338575342918</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.68351827911876</v>
+        <v>10.52401362544395</v>
       </c>
       <c r="C7">
-        <v>5.514260377922417</v>
+        <v>6.934083294813727</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.096440086289628</v>
+        <v>13.75799914402582</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>28.51880370153764</v>
+        <v>26.95560726831711</v>
       </c>
       <c r="H7">
-        <v>10.69054944508239</v>
+        <v>2.038159156012625</v>
       </c>
       <c r="I7">
-        <v>17.1119015433525</v>
+        <v>3.12256202050258</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.27984184056401</v>
       </c>
       <c r="K7">
-        <v>10.09235325489866</v>
+        <v>15.70839855021564</v>
       </c>
       <c r="L7">
-        <v>6.675885978484872</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.820722378583341</v>
       </c>
       <c r="N7">
-        <v>13.53354262546771</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.10488869401025</v>
+      </c>
+      <c r="P7">
+        <v>13.38989172785922</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.80823585295339</v>
+        <v>11.53782122696059</v>
       </c>
       <c r="C8">
-        <v>5.800655738053608</v>
+        <v>7.565424990147678</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.267343353096754</v>
+        <v>14.94937808655187</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>28.82727537019515</v>
+        <v>27.59600542523236</v>
       </c>
       <c r="H8">
-        <v>10.59759906180726</v>
+        <v>1.76931321046197</v>
       </c>
       <c r="I8">
-        <v>16.94980712342209</v>
+        <v>2.925116856538854</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.28597550152675</v>
       </c>
       <c r="K8">
-        <v>11.05344700442305</v>
+        <v>15.69551661212824</v>
       </c>
       <c r="L8">
-        <v>6.929345862360623</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.67518614707982</v>
       </c>
       <c r="N8">
-        <v>13.24376592357573</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.14789099388634</v>
+      </c>
+      <c r="P8">
+        <v>13.20409880230917</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.92065724812698</v>
+        <v>13.31427408768273</v>
       </c>
       <c r="C9">
-        <v>6.326446761043295</v>
+        <v>8.666538011101526</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.622360950449394</v>
+        <v>17.04564807900057</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>29.6917380459646</v>
+        <v>28.98426851676866</v>
       </c>
       <c r="H9">
-        <v>10.47337168566469</v>
+        <v>1.83761655058134</v>
       </c>
       <c r="I9">
-        <v>16.74004194787458</v>
+        <v>2.553943425906735</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.33647394046775</v>
       </c>
       <c r="K9">
-        <v>12.74003578614232</v>
+        <v>15.73521458400838</v>
       </c>
       <c r="L9">
-        <v>7.430474824497595</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.1794894227136</v>
       </c>
       <c r="N9">
-        <v>12.69749061499199</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>16.00220900402711</v>
+      </c>
+      <c r="P9">
+        <v>12.85387666417228</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.39160260694548</v>
+        <v>14.45530991489536</v>
       </c>
       <c r="C10">
-        <v>6.689881194368643</v>
+        <v>9.382381498951347</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.893593398651869</v>
+        <v>17.89914789129724</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>30.49745338228533</v>
+        <v>29.70142007895535</v>
       </c>
       <c r="H10">
-        <v>10.42207915235785</v>
+        <v>2.149399119998323</v>
       </c>
       <c r="I10">
-        <v>16.66111981027967</v>
+        <v>2.65192811317298</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.33010426973266</v>
       </c>
       <c r="K10">
-        <v>13.86047704890186</v>
+        <v>15.67994162011898</v>
       </c>
       <c r="L10">
-        <v>7.797892194533315</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.15330211234873</v>
       </c>
       <c r="N10">
-        <v>12.30758495335037</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.95615211421169</v>
+      </c>
+      <c r="P10">
+        <v>12.58559266451113</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.02691248026024</v>
+        <v>14.83863901090819</v>
       </c>
       <c r="C11">
-        <v>6.850148296122955</v>
+        <v>9.379123131760341</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.018892918705355</v>
+        <v>13.71364644964194</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>30.90321282617059</v>
+        <v>27.49702434175589</v>
       </c>
       <c r="H11">
-        <v>10.408487175628</v>
+        <v>2.92392710937411</v>
       </c>
       <c r="I11">
-        <v>16.64367227878139</v>
+        <v>2.718489037319046</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.874776665634592</v>
       </c>
       <c r="K11">
-        <v>14.34496374754003</v>
+        <v>14.87033434659763</v>
       </c>
       <c r="L11">
-        <v>7.964289607511862</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.39788038784442</v>
       </c>
       <c r="N11">
-        <v>12.13222794165037</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.93240813126187</v>
+      </c>
+      <c r="P11">
+        <v>12.37972017060471</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.26269207662684</v>
+        <v>14.95597066637589</v>
       </c>
       <c r="C12">
-        <v>6.910107304875428</v>
+        <v>9.20784191597618</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.066588525552778</v>
+        <v>10.16445081217711</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>31.06265404586713</v>
+        <v>25.56235831898775</v>
       </c>
       <c r="H12">
-        <v>10.4048337381203</v>
+        <v>4.148281269117807</v>
       </c>
       <c r="I12">
-        <v>16.63990313597515</v>
+        <v>2.723954829765197</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.511367500332369</v>
       </c>
       <c r="K12">
-        <v>14.52485040628755</v>
+        <v>14.25011121350924</v>
       </c>
       <c r="L12">
-        <v>8.027152104928721</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.41351508796031</v>
       </c>
       <c r="N12">
-        <v>12.06607341556115</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.02433537550942</v>
+      </c>
+      <c r="P12">
+        <v>12.30817975957437</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.21212504054989</v>
+        <v>14.85668227170202</v>
       </c>
       <c r="C13">
-        <v>6.897226548877108</v>
+        <v>8.917799092648973</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.056305840249669</v>
+        <v>7.073012046914082</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>31.02805590150529</v>
+        <v>23.6096564969337</v>
       </c>
       <c r="H13">
-        <v>10.40555262590204</v>
+        <v>5.462200675851408</v>
       </c>
       <c r="I13">
-        <v>16.64058567662548</v>
+        <v>2.687834884720665</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.181370972567073</v>
       </c>
       <c r="K13">
-        <v>14.48626693565977</v>
+        <v>13.7057271839655</v>
       </c>
       <c r="L13">
-        <v>8.013620749169307</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.24921081431116</v>
       </c>
       <c r="N13">
-        <v>12.08031055446905</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.04030256881187</v>
+      </c>
+      <c r="P13">
+        <v>12.32605181153053</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.04640598534497</v>
+        <v>14.68356731679203</v>
       </c>
       <c r="C14">
-        <v>6.855095802253808</v>
+        <v>8.66323178202048</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.02281205858066</v>
+        <v>5.602265890761791</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>30.91621335119776</v>
+        <v>22.22364515249666</v>
       </c>
       <c r="H14">
-        <v>10.40815612671434</v>
+        <v>6.463186478032314</v>
       </c>
       <c r="I14">
-        <v>16.64330423769399</v>
+        <v>2.64554081380188</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.966280882893338</v>
       </c>
       <c r="K14">
-        <v>14.35983455546873</v>
+        <v>13.36174752262643</v>
       </c>
       <c r="L14">
-        <v>7.969464538278959</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.05001572150818</v>
       </c>
       <c r="N14">
-        <v>12.12678061099956</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.604780304316201</v>
+      </c>
+      <c r="P14">
+        <v>12.38187987674679</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.94427540635659</v>
+        <v>14.58800589403407</v>
       </c>
       <c r="C15">
-        <v>6.829194348853076</v>
+        <v>8.580532706470562</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.002327578620221</v>
+        <v>5.4084298994387</v>
       </c>
       <c r="F15">
-        <v>38.96319309123407</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>30.84846451768576</v>
+        <v>21.86539947883489</v>
       </c>
       <c r="H15">
-        <v>10.40994817126173</v>
+        <v>6.702512125515701</v>
       </c>
       <c r="I15">
-        <v>16.6453445777443</v>
+        <v>2.62739826449524</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.917920682432404</v>
       </c>
       <c r="K15">
-        <v>14.28192657931589</v>
+        <v>13.28655365355146</v>
       </c>
       <c r="L15">
-        <v>7.942397098684624</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.96047056272951</v>
       </c>
       <c r="N15">
-        <v>12.1552760995279</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.23535537941358</v>
+      </c>
+      <c r="P15">
+        <v>12.40901419784848</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.3494084448084</v>
+        <v>14.12639984249062</v>
       </c>
       <c r="C16">
-        <v>6.67930515953154</v>
+        <v>8.332584390774061</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.885440870290362</v>
+        <v>5.381270382044783</v>
       </c>
       <c r="F16">
-        <v>37.63463543028808</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>30.47173852475487</v>
+        <v>21.8738627410772</v>
       </c>
       <c r="H16">
-        <v>10.42317127881483</v>
+        <v>6.489598291838587</v>
       </c>
       <c r="I16">
-        <v>16.66264699709634</v>
+        <v>2.533708003316721</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.982712968777424</v>
       </c>
       <c r="K16">
-        <v>13.82831137719144</v>
+        <v>13.41224822166354</v>
       </c>
       <c r="L16">
-        <v>7.786999074091469</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.58137737117277</v>
       </c>
       <c r="N16">
-        <v>12.31908208877189</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.100941482847619</v>
+      </c>
+      <c r="P16">
+        <v>12.50629421816488</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.97585809924417</v>
+        <v>13.85993161463102</v>
       </c>
       <c r="C17">
-        <v>6.58605309090291</v>
+        <v>8.28163012386454</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.814204490609907</v>
+        <v>5.955588491700701</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>30.25078868470962</v>
+        <v>22.61973619657342</v>
       </c>
       <c r="H17">
-        <v>10.43384294938562</v>
+        <v>5.741549675202154</v>
       </c>
       <c r="I17">
-        <v>16.67811714101006</v>
+        <v>2.533248536526048</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.144752801311663</v>
       </c>
       <c r="K17">
-        <v>13.54360893712664</v>
+        <v>13.68571841337226</v>
       </c>
       <c r="L17">
-        <v>7.691445520724806</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.39509275807983</v>
       </c>
       <c r="N17">
-        <v>12.42005967412185</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.786483327500195</v>
+      </c>
+      <c r="P17">
+        <v>12.55109379205333</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.75781334749345</v>
+        <v>13.75290024335563</v>
       </c>
       <c r="C18">
-        <v>6.531940449311469</v>
+        <v>8.386837157294886</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.773412965333518</v>
+        <v>8.039947237249315</v>
       </c>
       <c r="F18">
-        <v>36.31710943239619</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>30.12738966677696</v>
+        <v>24.14129897452238</v>
       </c>
       <c r="H18">
-        <v>10.44089210988026</v>
+        <v>4.460283421717412</v>
       </c>
       <c r="I18">
-        <v>16.68874077380987</v>
+        <v>2.539645602797701</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.421090112585981</v>
       </c>
       <c r="K18">
-        <v>13.37747989811788</v>
+        <v>14.1477063723433</v>
       </c>
       <c r="L18">
-        <v>7.636417865441947</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.3637192343275</v>
       </c>
       <c r="N18">
-        <v>12.47833134676062</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.28607019205058</v>
+      </c>
+      <c r="P18">
+        <v>12.57466584618317</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.68343755437221</v>
+        <v>13.75533206587464</v>
       </c>
       <c r="C19">
-        <v>6.513537166422704</v>
+        <v>8.645834918086976</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.75963375783298</v>
+        <v>11.58733505407758</v>
       </c>
       <c r="F19">
-        <v>36.15172494150059</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>30.08623709815934</v>
+        <v>26.09667309715139</v>
       </c>
       <c r="H19">
-        <v>10.44343255442796</v>
+        <v>3.00208278044939</v>
       </c>
       <c r="I19">
-        <v>16.69262862144783</v>
+        <v>2.524907318155667</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.761606308148494</v>
       </c>
       <c r="K19">
-        <v>13.32082206442716</v>
+        <v>14.71649671351834</v>
       </c>
       <c r="L19">
-        <v>7.617776180931749</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.45479920923231</v>
       </c>
       <c r="N19">
-        <v>12.49809529335304</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.33019387146035</v>
+      </c>
+      <c r="P19">
+        <v>12.60669826843048</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.01595269675014</v>
+        <v>14.11649374572634</v>
       </c>
       <c r="C20">
-        <v>6.596029287453387</v>
+        <v>9.250055902799591</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.821769122884397</v>
+        <v>17.65790137390685</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>30.27392661914266</v>
+        <v>29.32216088214625</v>
       </c>
       <c r="H20">
-        <v>10.43261197727405</v>
+        <v>2.064520217577932</v>
       </c>
       <c r="I20">
-        <v>16.67629040923696</v>
+        <v>2.600015236262727</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.29631994908725</v>
       </c>
       <c r="K20">
-        <v>13.57416154958304</v>
+        <v>15.61790636969921</v>
       </c>
       <c r="L20">
-        <v>7.701624697020809</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.89220745668576</v>
       </c>
       <c r="N20">
-        <v>12.40929084443274</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.69270728165645</v>
+      </c>
+      <c r="P20">
+        <v>12.64558842876159</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.09521137158452</v>
+        <v>14.97440492863615</v>
       </c>
       <c r="C21">
-        <v>6.867490452078709</v>
+        <v>9.828827599899647</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.032643491057385</v>
+        <v>19.10985893580901</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>30.94890602260024</v>
+        <v>30.35911708977065</v>
       </c>
       <c r="H21">
-        <v>10.40735012195273</v>
+        <v>2.332104177289302</v>
       </c>
       <c r="I21">
-        <v>16.64242721385532</v>
+        <v>2.790896650872716</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.38250582462615</v>
       </c>
       <c r="K21">
-        <v>14.39706752073371</v>
+        <v>15.73393491574614</v>
       </c>
       <c r="L21">
-        <v>7.982438622745031</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.63917532764634</v>
       </c>
       <c r="N21">
-        <v>12.11312479475687</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.83069859994961</v>
+      </c>
+      <c r="P21">
+        <v>12.46356451395664</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.77263353857784</v>
+        <v>15.52229653773721</v>
       </c>
       <c r="C22">
-        <v>7.04064932455279</v>
+        <v>10.15508663625305</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.171892866530113</v>
+        <v>19.75111988952281</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>31.42384338243347</v>
+        <v>30.96144764996296</v>
       </c>
       <c r="H22">
-        <v>10.39959144258197</v>
+        <v>2.492692658596971</v>
       </c>
       <c r="I22">
-        <v>16.63692658582909</v>
+        <v>2.906634505664413</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.42866415913267</v>
       </c>
       <c r="K22">
-        <v>14.91405380705088</v>
+        <v>15.79756492344114</v>
       </c>
       <c r="L22">
-        <v>8.165085717792643</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.1017058558762</v>
       </c>
       <c r="N22">
-        <v>11.9209959920294</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>18.40655271762742</v>
+      </c>
+      <c r="P22">
+        <v>12.34217534075837</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.41361385324012</v>
+        <v>15.24946768772715</v>
       </c>
       <c r="C23">
-        <v>6.948620327596028</v>
+        <v>9.962872621531185</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.097450548649343</v>
+        <v>19.4102936033542</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>31.16722338913157</v>
+        <v>30.70468514207037</v>
       </c>
       <c r="H23">
-        <v>10.40289996439009</v>
+        <v>2.407964679276292</v>
       </c>
       <c r="I23">
-        <v>16.6382782343973</v>
+        <v>2.84069796799557</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.41589220005526</v>
       </c>
       <c r="K23">
-        <v>14.64001793025046</v>
+        <v>15.79022599169019</v>
       </c>
       <c r="L23">
-        <v>8.067696327945601</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.8608355225147</v>
       </c>
       <c r="N23">
-        <v>12.02342164253229</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>18.10343611728071</v>
+      </c>
+      <c r="P23">
+        <v>12.41048717634362</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.9978361683606</v>
+        <v>14.13789280355873</v>
       </c>
       <c r="C24">
-        <v>6.591520608545929</v>
+        <v>9.241856091340404</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.818348642096895</v>
+        <v>18.06788042595167</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>30.26345466991391</v>
+        <v>29.63494790753072</v>
       </c>
       <c r="H24">
-        <v>10.43316566022592</v>
+        <v>2.0793555757827</v>
       </c>
       <c r="I24">
-        <v>16.6771109010968</v>
+        <v>2.593832834808785</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.35438238956573</v>
       </c>
       <c r="K24">
-        <v>13.56035634761531</v>
+        <v>15.72781661575154</v>
       </c>
       <c r="L24">
-        <v>7.697022976737548</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.90254153182696</v>
       </c>
       <c r="N24">
-        <v>12.41415874933823</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.90628265721315</v>
+      </c>
+      <c r="P24">
+        <v>12.66459604815664</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.34854762669601</v>
+        <v>12.82926345914509</v>
       </c>
       <c r="C25">
-        <v>6.188168499071282</v>
+        <v>8.413107131877545</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.5243697162411</v>
+        <v>16.50589421776331</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>29.42872484483385</v>
+        <v>28.50015772032497</v>
       </c>
       <c r="H25">
-        <v>10.50030399570082</v>
+        <v>1.710046464536595</v>
       </c>
       <c r="I25">
-        <v>16.78428186421264</v>
+        <v>2.669659597764526</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.30158877146688</v>
       </c>
       <c r="K25">
-        <v>12.30478171341655</v>
+        <v>15.67974629154608</v>
       </c>
       <c r="L25">
-        <v>7.294822621681321</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.78449257174883</v>
       </c>
       <c r="N25">
-        <v>12.84311446199073</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>15.51820081797807</v>
+      </c>
+      <c r="P25">
+        <v>12.94182849393651</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.82171250458621</v>
+        <v>11.54502257213116</v>
       </c>
       <c r="C2">
-        <v>7.701105329467557</v>
+        <v>7.954024967629972</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.25468741206958</v>
+        <v>15.35347454706898</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>27.85724467090636</v>
+        <v>25.85855584543421</v>
       </c>
       <c r="H2">
-        <v>1.697966968524022</v>
+        <v>1.655386618813733</v>
       </c>
       <c r="I2">
-        <v>2.860348556211639</v>
+        <v>2.74035911193393</v>
       </c>
       <c r="J2">
-        <v>10.30393306837471</v>
+        <v>10.27378402105027</v>
       </c>
       <c r="K2">
-        <v>15.7266930747605</v>
+        <v>14.94669420667826</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.55639935914605</v>
       </c>
       <c r="M2">
-        <v>10.90074662569462</v>
+        <v>9.572998275623528</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.42060638404586</v>
+        <v>10.85257178514339</v>
       </c>
       <c r="P2">
-        <v>13.15936943875629</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.40011698244519</v>
+      </c>
+      <c r="R2">
+        <v>12.96627294493679</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.05107735058079</v>
+        <v>10.84023609513812</v>
       </c>
       <c r="C3">
-        <v>7.221069757122923</v>
+        <v>7.403142301063783</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.34723893296077</v>
+        <v>14.45626172561522</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>27.33666997257618</v>
+        <v>25.53066494697539</v>
       </c>
       <c r="H3">
-        <v>1.904983677815714</v>
+        <v>1.853044647305794</v>
       </c>
       <c r="I3">
-        <v>3.013743465156148</v>
+        <v>2.872778458637302</v>
       </c>
       <c r="J3">
-        <v>10.29426754185923</v>
+        <v>10.25248157055427</v>
       </c>
       <c r="K3">
-        <v>15.72841065685009</v>
+        <v>14.99922255179568</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.68707595125174</v>
       </c>
       <c r="M3">
-        <v>10.24989876894448</v>
+        <v>9.540856469359358</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.62360003422527</v>
+        <v>10.22292536312652</v>
       </c>
       <c r="P3">
-        <v>13.30363042100359</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.61236334043075</v>
+      </c>
+      <c r="R3">
+        <v>13.10545498603636</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.54703194549386</v>
+        <v>10.37937458314243</v>
       </c>
       <c r="C4">
-        <v>6.913537922623032</v>
+        <v>7.049046617711534</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.76020563635779</v>
+        <v>13.87630155984196</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>27.02043701407607</v>
+        <v>25.33541219028073</v>
       </c>
       <c r="H4">
-        <v>2.036695184566749</v>
+        <v>1.978868393466007</v>
       </c>
       <c r="I4">
-        <v>3.112058625645379</v>
+        <v>2.95804186484322</v>
       </c>
       <c r="J4">
-        <v>10.2906781857432</v>
+        <v>10.23969259800394</v>
       </c>
       <c r="K4">
-        <v>15.73219845803631</v>
+        <v>15.03292581742155</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.76767199602596</v>
       </c>
       <c r="M4">
-        <v>9.827828606769565</v>
+        <v>9.538442645699044</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.1101790371563</v>
+        <v>9.814691625924048</v>
       </c>
       <c r="P4">
-        <v>13.39326148442723</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.10489068665095</v>
+      </c>
+      <c r="R4">
+        <v>13.19218225053243</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.32767907955093</v>
+        <v>10.17866879592726</v>
       </c>
       <c r="C5">
-        <v>6.791798715752265</v>
+        <v>6.907632747397894</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.51385701523488</v>
+        <v>13.633043435506</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>26.87356137967282</v>
+        <v>25.23933446518044</v>
       </c>
       <c r="H5">
-        <v>2.091763429511546</v>
+        <v>2.031483227084368</v>
       </c>
       <c r="I5">
-        <v>3.156084975485666</v>
+        <v>2.997190319447547</v>
       </c>
       <c r="J5">
-        <v>10.28655163384033</v>
+        <v>10.23145454329264</v>
       </c>
       <c r="K5">
-        <v>15.72728228632101</v>
+        <v>15.04045630462278</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.79457516031849</v>
       </c>
       <c r="M5">
-        <v>9.648779427815054</v>
+        <v>9.538003816304334</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.89429365325727</v>
+        <v>9.641570760330387</v>
       </c>
       <c r="P5">
-        <v>13.42888602429254</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.89153190922748</v>
+      </c>
+      <c r="R5">
+        <v>13.2269168986912</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.28325132961944</v>
+        <v>10.13779590453457</v>
       </c>
       <c r="C6">
-        <v>6.77969866829032</v>
+        <v>6.892311113369049</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.472906594857</v>
+        <v>13.5926084023068</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>26.82607110256859</v>
+        <v>25.2014732507498</v>
       </c>
       <c r="H6">
-        <v>2.101248766841764</v>
+        <v>2.040538281394872</v>
       </c>
       <c r="I6">
-        <v>3.167200399555699</v>
+        <v>3.008136883596426</v>
       </c>
       <c r="J6">
-        <v>10.28194430170056</v>
+        <v>10.22630751911768</v>
       </c>
       <c r="K6">
-        <v>15.7178039115014</v>
+        <v>15.03373097621576</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.79168900275856</v>
       </c>
       <c r="M6">
-        <v>9.616949061370692</v>
+        <v>9.533533953910101</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.85719392113335</v>
+        <v>9.610831098164962</v>
       </c>
       <c r="P6">
-        <v>13.43338575342918</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.85489584371251</v>
+      </c>
+      <c r="R6">
+        <v>13.23156932443168</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.52401362544395</v>
+        <v>10.35300305458781</v>
       </c>
       <c r="C7">
-        <v>6.934083294813727</v>
+        <v>7.057072739959628</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.75799914402582</v>
+        <v>13.87655400531845</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>26.95560726831711</v>
+        <v>25.33573011096917</v>
       </c>
       <c r="H7">
-        <v>2.038159156012625</v>
+        <v>1.980742590777185</v>
       </c>
       <c r="I7">
-        <v>3.12256202050258</v>
+        <v>2.970872357569335</v>
       </c>
       <c r="J7">
-        <v>10.27984184056401</v>
+        <v>10.18990391811494</v>
       </c>
       <c r="K7">
-        <v>15.70839855021564</v>
+        <v>15.00145974865029</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.73958155042866</v>
       </c>
       <c r="M7">
-        <v>9.820722378583341</v>
+        <v>9.519230225718136</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.10488869401025</v>
+        <v>9.801014174146189</v>
       </c>
       <c r="P7">
-        <v>13.38989172785922</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.09641163258525</v>
+      </c>
+      <c r="R7">
+        <v>13.18815366282626</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.53782122696059</v>
+        <v>11.27013551716992</v>
       </c>
       <c r="C8">
-        <v>7.565424990147678</v>
+        <v>7.756471608975898</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.94937808655187</v>
+        <v>15.05918037174614</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>27.59600542523236</v>
+        <v>25.86865031070091</v>
       </c>
       <c r="H8">
-        <v>1.76931321046197</v>
+        <v>1.725006727466911</v>
       </c>
       <c r="I8">
-        <v>2.925116856538854</v>
+        <v>2.802267191528276</v>
       </c>
       <c r="J8">
-        <v>10.28597550152675</v>
+        <v>10.12481810377452</v>
       </c>
       <c r="K8">
-        <v>15.69551661212824</v>
+        <v>14.90411776396857</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.55075698604279</v>
       </c>
       <c r="M8">
-        <v>10.67518614707982</v>
+        <v>9.516778183596553</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.14789099388634</v>
+        <v>10.61310770417178</v>
       </c>
       <c r="P8">
-        <v>13.20409880230917</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.12035801626297</v>
+      </c>
+      <c r="R8">
+        <v>13.00610416178774</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.31427408768273</v>
+        <v>12.8937219117654</v>
       </c>
       <c r="C9">
-        <v>8.666538011101526</v>
+        <v>9.012621057849099</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17.04564807900057</v>
+        <v>17.13476790345805</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>28.98426851676866</v>
+        <v>26.83987946089824</v>
       </c>
       <c r="H9">
-        <v>1.83761655058134</v>
+        <v>1.858446514373145</v>
       </c>
       <c r="I9">
-        <v>2.553943425906735</v>
+        <v>2.485506222416708</v>
       </c>
       <c r="J9">
-        <v>10.33647394046775</v>
+        <v>10.15827647680139</v>
       </c>
       <c r="K9">
-        <v>15.73521458400838</v>
+        <v>14.79943561276196</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.24657261036419</v>
       </c>
       <c r="M9">
-        <v>12.1794894227136</v>
+        <v>9.697781215052977</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.00220900402711</v>
+        <v>12.06544709428382</v>
       </c>
       <c r="P9">
-        <v>12.85387666417228</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.95135561692034</v>
+      </c>
+      <c r="R9">
+        <v>12.66869955397258</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.45530991489536</v>
+        <v>13.92185315821461</v>
       </c>
       <c r="C10">
-        <v>9.382381498951347</v>
+        <v>9.763457899867205</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.89914789129724</v>
+        <v>17.98669733625927</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>29.70142007895535</v>
+        <v>27.63989479387632</v>
       </c>
       <c r="H10">
-        <v>2.149399119998323</v>
+        <v>2.152533039447081</v>
       </c>
       <c r="I10">
-        <v>2.65192811317298</v>
+        <v>2.695304807635018</v>
       </c>
       <c r="J10">
-        <v>10.33010426973266</v>
+        <v>9.925511572615946</v>
       </c>
       <c r="K10">
-        <v>15.67994162011898</v>
+        <v>14.59638109579316</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.93009486141024</v>
       </c>
       <c r="M10">
-        <v>13.15330211234873</v>
+        <v>9.797891369205027</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.95615211421169</v>
+        <v>12.97533650547085</v>
       </c>
       <c r="P10">
-        <v>12.58559266451113</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.87521585463426</v>
+      </c>
+      <c r="R10">
+        <v>12.41413585590328</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.83863901090819</v>
+        <v>14.28909472131401</v>
       </c>
       <c r="C11">
-        <v>9.379123131760341</v>
+        <v>9.600037043700381</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.71364644964194</v>
+        <v>13.81297772615499</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>27.49702434175589</v>
+        <v>26.30074914438489</v>
       </c>
       <c r="H11">
-        <v>2.92392710937411</v>
+        <v>2.920955048606816</v>
       </c>
       <c r="I11">
-        <v>2.718489037319046</v>
+        <v>2.751082830925248</v>
       </c>
       <c r="J11">
-        <v>9.874776665634592</v>
+        <v>9.161099849504081</v>
       </c>
       <c r="K11">
-        <v>14.87033434659763</v>
+        <v>13.79524547642773</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.31386766206976</v>
       </c>
       <c r="M11">
-        <v>13.39788038784442</v>
+        <v>9.239150827526181</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.93240813126187</v>
+        <v>13.15683947020076</v>
       </c>
       <c r="P11">
-        <v>12.37972017060471</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.82298312437239</v>
+      </c>
+      <c r="R11">
+        <v>12.28189187900921</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.95597066637589</v>
+        <v>14.42742480071654</v>
       </c>
       <c r="C12">
-        <v>9.20784191597618</v>
+        <v>9.320546684670425</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.16445081217711</v>
+        <v>10.25874484545663</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>25.56235831898775</v>
+        <v>24.85128900282984</v>
       </c>
       <c r="H12">
-        <v>4.148281269117807</v>
+        <v>4.14552417750109</v>
       </c>
       <c r="I12">
-        <v>2.723954829765197</v>
+        <v>2.753873947207318</v>
       </c>
       <c r="J12">
-        <v>9.511367500332369</v>
+        <v>8.758823587249999</v>
       </c>
       <c r="K12">
-        <v>14.25011121350924</v>
+        <v>13.25167605337326</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.93894849843875</v>
       </c>
       <c r="M12">
-        <v>13.41351508796031</v>
+        <v>8.801217827045514</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.02433537550942</v>
+        <v>13.15076771852268</v>
       </c>
       <c r="P12">
-        <v>12.30817975957437</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.9068537588532</v>
+      </c>
+      <c r="R12">
+        <v>12.27163830321816</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.85668227170202</v>
+        <v>14.38996854901318</v>
       </c>
       <c r="C13">
-        <v>8.917799092648973</v>
+        <v>8.974195411391575</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.073012046914082</v>
+        <v>7.140356995924643</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>23.6096564969337</v>
+        <v>22.98440201613482</v>
       </c>
       <c r="H13">
-        <v>5.462200675851408</v>
+        <v>5.46137874423807</v>
       </c>
       <c r="I13">
-        <v>2.687834884720665</v>
+        <v>2.723881179346402</v>
       </c>
       <c r="J13">
-        <v>9.181370972567073</v>
+        <v>8.596568551465147</v>
       </c>
       <c r="K13">
-        <v>13.7057271839655</v>
+        <v>12.85406148070378</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.69285274584286</v>
       </c>
       <c r="M13">
-        <v>13.24921081431116</v>
+        <v>8.426974406154978</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.04030256881187</v>
+        <v>13.00855346839448</v>
       </c>
       <c r="P13">
-        <v>12.32605181153053</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.93623525916372</v>
+      </c>
+      <c r="R13">
+        <v>12.33276487400271</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.68356731679203</v>
+        <v>14.27934719550515</v>
       </c>
       <c r="C14">
-        <v>8.66323178202048</v>
+        <v>8.701218869135394</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.602265890761791</v>
+        <v>5.636650194842042</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>22.22364515249666</v>
+        <v>21.49315192109727</v>
       </c>
       <c r="H14">
-        <v>6.463186478032314</v>
+        <v>6.462719439563921</v>
       </c>
       <c r="I14">
-        <v>2.64554081380188</v>
+        <v>2.690084071719494</v>
       </c>
       <c r="J14">
-        <v>8.966280882893338</v>
+        <v>8.563610018712899</v>
       </c>
       <c r="K14">
-        <v>13.36174752262643</v>
+        <v>12.63588567056898</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.56822379408768</v>
       </c>
       <c r="M14">
-        <v>13.05001572150818</v>
+        <v>8.195002771529621</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.604780304316201</v>
+        <v>12.84439091950407</v>
       </c>
       <c r="P14">
-        <v>12.38187987674679</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.519717427645338</v>
+      </c>
+      <c r="R14">
+        <v>12.4047316087159</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.58800589403407</v>
+        <v>14.20765570327234</v>
       </c>
       <c r="C15">
-        <v>8.580532706470562</v>
+        <v>8.622836609175879</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.4084298994387</v>
+        <v>5.435902355822138</v>
       </c>
       <c r="F15">
         <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>21.86539947883489</v>
+        <v>21.04416437305899</v>
       </c>
       <c r="H15">
-        <v>6.702512125515701</v>
+        <v>6.701582445215043</v>
       </c>
       <c r="I15">
-        <v>2.62739826449524</v>
+        <v>2.6764611635564</v>
       </c>
       <c r="J15">
-        <v>8.917920682432404</v>
+        <v>8.58691789070595</v>
       </c>
       <c r="K15">
-        <v>13.28655365355146</v>
+        <v>12.60165338803417</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.55256064740025</v>
       </c>
       <c r="M15">
-        <v>12.96047056272951</v>
+        <v>8.146477309564196</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.23535537941358</v>
+        <v>12.77197250173651</v>
       </c>
       <c r="P15">
-        <v>12.40901419784848</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.158859041455989</v>
+      </c>
+      <c r="R15">
+        <v>12.43086109302315</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.12639984249062</v>
+        <v>13.81774211413018</v>
       </c>
       <c r="C16">
-        <v>8.332584390774061</v>
+        <v>8.44752811615446</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.381270382044783</v>
+        <v>5.434738848286397</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>21.8738627410772</v>
+        <v>20.53239711956232</v>
       </c>
       <c r="H16">
-        <v>6.489598291838587</v>
+        <v>6.486184869205773</v>
       </c>
       <c r="I16">
-        <v>2.533708003316721</v>
+        <v>2.601392275728416</v>
       </c>
       <c r="J16">
-        <v>8.982712968777424</v>
+        <v>8.901765753568796</v>
       </c>
       <c r="K16">
-        <v>13.41224822166354</v>
+        <v>12.81133714914449</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.71650847426153</v>
       </c>
       <c r="M16">
-        <v>12.58137737117277</v>
+        <v>8.25028028524474</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.100941482847619</v>
+        <v>12.46478888651717</v>
       </c>
       <c r="P16">
-        <v>12.50629421816488</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.056377686131073</v>
+      </c>
+      <c r="R16">
+        <v>12.49144992138224</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.85993161463102</v>
+        <v>13.56658216018061</v>
       </c>
       <c r="C17">
-        <v>8.28163012386454</v>
+        <v>8.450364801737996</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.955588491700701</v>
+        <v>6.031015764990864</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>22.61973619657342</v>
+        <v>21.00723077768053</v>
       </c>
       <c r="H17">
-        <v>5.741549675202154</v>
+        <v>5.736249128776065</v>
       </c>
       <c r="I17">
-        <v>2.533248536526048</v>
+        <v>2.561028810951223</v>
       </c>
       <c r="J17">
-        <v>9.144752801311663</v>
+        <v>9.157098117327921</v>
       </c>
       <c r="K17">
-        <v>13.68571841337226</v>
+        <v>13.08183295818166</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.91711716670575</v>
       </c>
       <c r="M17">
-        <v>12.39509275807983</v>
+        <v>8.438338345917943</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.786483327500195</v>
+        <v>12.3065738361175</v>
       </c>
       <c r="P17">
-        <v>12.55109379205333</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.753008332509392</v>
+      </c>
+      <c r="R17">
+        <v>12.50915557001414</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.75290024335563</v>
+        <v>13.43417871427019</v>
       </c>
       <c r="C18">
-        <v>8.386837157294886</v>
+        <v>8.619046765903441</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.039947237249315</v>
+        <v>8.120932776192442</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>24.14129897452238</v>
+        <v>22.29840740625732</v>
       </c>
       <c r="H18">
-        <v>4.460283421717412</v>
+        <v>4.453153853433524</v>
       </c>
       <c r="I18">
-        <v>2.539645602797701</v>
+        <v>2.543357109954276</v>
       </c>
       <c r="J18">
-        <v>9.421090112585981</v>
+        <v>9.444184100513917</v>
       </c>
       <c r="K18">
-        <v>14.1477063723433</v>
+        <v>13.47870298047338</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.20606275187515</v>
       </c>
       <c r="M18">
-        <v>12.3637192343275</v>
+        <v>8.747563121862344</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.28607019205058</v>
+        <v>12.27943039371199</v>
       </c>
       <c r="P18">
-        <v>12.57466584618317</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.25261832085216</v>
+      </c>
+      <c r="R18">
+        <v>12.50345232428815</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.75533206587464</v>
+        <v>13.38547033996512</v>
       </c>
       <c r="C19">
-        <v>8.645834918086976</v>
+        <v>8.952213632125963</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.58733505407758</v>
+        <v>11.66587487980995</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>26.09667309715139</v>
+        <v>24.02524498586336</v>
       </c>
       <c r="H19">
-        <v>3.00208278044939</v>
+        <v>3.012735037541458</v>
       </c>
       <c r="I19">
-        <v>2.524907318155667</v>
+        <v>2.562074654114535</v>
       </c>
       <c r="J19">
-        <v>9.761606308148494</v>
+        <v>9.748406787145548</v>
       </c>
       <c r="K19">
-        <v>14.71649671351834</v>
+        <v>13.94273763911636</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.54116583461511</v>
       </c>
       <c r="M19">
-        <v>12.45479920923231</v>
+        <v>9.124408155631972</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.33019387146035</v>
+        <v>12.3603991855437</v>
       </c>
       <c r="P19">
-        <v>12.60669826843048</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.29048763120715</v>
+      </c>
+      <c r="R19">
+        <v>12.50060046909873</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.11649374572634</v>
+        <v>13.62768912993912</v>
       </c>
       <c r="C20">
-        <v>9.250055902799591</v>
+        <v>9.656080049809802</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.65790137390685</v>
+        <v>17.73875533016678</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>29.32216088214625</v>
+        <v>27.03908688498691</v>
       </c>
       <c r="H20">
-        <v>2.064520217577932</v>
+        <v>2.07382630358873</v>
       </c>
       <c r="I20">
-        <v>2.600015236262727</v>
+        <v>2.658163344642189</v>
       </c>
       <c r="J20">
-        <v>10.29631994908725</v>
+        <v>10.08621245733047</v>
       </c>
       <c r="K20">
-        <v>15.61790636969921</v>
+        <v>14.61568855446384</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.98822578877637</v>
       </c>
       <c r="M20">
-        <v>12.89220745668576</v>
+        <v>9.739890502925631</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.69270728165645</v>
+        <v>12.75085571919544</v>
       </c>
       <c r="P20">
-        <v>12.64558842876159</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.62929855113676</v>
+      </c>
+      <c r="R20">
+        <v>12.47755973678713</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.97440492863615</v>
+        <v>14.32390481589855</v>
       </c>
       <c r="C21">
-        <v>9.828827599899647</v>
+        <v>10.100346971464</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.10985893580901</v>
+        <v>19.22751553108922</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>30.35911708977065</v>
+        <v>29.19959803331894</v>
       </c>
       <c r="H21">
-        <v>2.332104177289302</v>
+        <v>2.320413256316936</v>
       </c>
       <c r="I21">
-        <v>2.790896650872716</v>
+        <v>2.811438531702648</v>
       </c>
       <c r="J21">
-        <v>10.38250582462615</v>
+        <v>9.342057841317425</v>
       </c>
       <c r="K21">
-        <v>15.73393491574614</v>
+        <v>14.41244736597125</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.72025027246096</v>
       </c>
       <c r="M21">
-        <v>13.63917532764634</v>
+        <v>9.790349073791617</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.83069859994961</v>
+        <v>13.34786329616714</v>
       </c>
       <c r="P21">
-        <v>12.46356451395664</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.69476940055787</v>
+      </c>
+      <c r="R21">
+        <v>12.28076555370981</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.52229653773721</v>
+        <v>14.76920361919895</v>
       </c>
       <c r="C22">
-        <v>10.15508663625305</v>
+        <v>10.3273538213895</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.75111988952281</v>
+        <v>19.89520669261127</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>30.96144764996296</v>
+        <v>30.64540412046364</v>
       </c>
       <c r="H22">
-        <v>2.492692658596971</v>
+        <v>2.467612761373286</v>
       </c>
       <c r="I22">
-        <v>2.906634505664413</v>
+        <v>2.901895997830412</v>
       </c>
       <c r="J22">
-        <v>10.42866415913267</v>
+        <v>8.864568347983631</v>
       </c>
       <c r="K22">
-        <v>15.79756492344114</v>
+        <v>14.25654581641334</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.53441318490869</v>
       </c>
       <c r="M22">
-        <v>14.1017058558762</v>
+        <v>9.810875015542091</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.40655271762742</v>
+        <v>13.71059814554368</v>
       </c>
       <c r="P22">
-        <v>12.34217534075837</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.22205725742989</v>
+      </c>
+      <c r="R22">
+        <v>12.15342605136568</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.24946768772715</v>
+        <v>14.55894684994878</v>
       </c>
       <c r="C23">
-        <v>9.962872621531185</v>
+        <v>10.21147193414594</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.4102936033542</v>
+        <v>19.53502586050217</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>30.70468514207037</v>
+        <v>29.77944691434022</v>
       </c>
       <c r="H23">
-        <v>2.407964679276292</v>
+        <v>2.390778486328308</v>
       </c>
       <c r="I23">
-        <v>2.84069796799557</v>
+        <v>2.849015937542608</v>
       </c>
       <c r="J23">
-        <v>10.41589220005526</v>
+        <v>9.198841233990503</v>
       </c>
       <c r="K23">
-        <v>15.79022599169019</v>
+        <v>14.38724263034282</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.66426786945084</v>
       </c>
       <c r="M23">
-        <v>13.8608355225147</v>
+        <v>9.840711179409025</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.10343611728071</v>
+        <v>13.53597556399968</v>
       </c>
       <c r="P23">
-        <v>12.41048717634362</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.95123580687759</v>
+      </c>
+      <c r="R23">
+        <v>12.22427130938965</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.13789280355873</v>
+        <v>13.64340584444503</v>
       </c>
       <c r="C24">
-        <v>9.241856091340404</v>
+        <v>9.656312420711298</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>18.06788042595167</v>
+        <v>18.14865366962159</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>29.63494790753072</v>
+        <v>27.31559954405259</v>
       </c>
       <c r="H24">
-        <v>2.0793555757827</v>
+        <v>2.088483686081163</v>
       </c>
       <c r="I24">
-        <v>2.593832834808785</v>
+        <v>2.649386033391399</v>
       </c>
       <c r="J24">
-        <v>10.35438238956573</v>
+        <v>10.14304713241877</v>
       </c>
       <c r="K24">
-        <v>15.72781661575154</v>
+        <v>14.71053214069034</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.05784677120845</v>
       </c>
       <c r="M24">
-        <v>12.90254153182696</v>
+        <v>9.815027645378215</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.90628265721315</v>
+        <v>12.76068652737523</v>
       </c>
       <c r="P24">
-        <v>12.66459604815664</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.84254074196996</v>
+      </c>
+      <c r="R24">
+        <v>12.48882037546167</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.82926345914509</v>
+        <v>12.45509315994888</v>
       </c>
       <c r="C25">
-        <v>8.413107131877545</v>
+        <v>8.734735326739665</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.50589421776331</v>
+        <v>16.59706428414342</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>28.50015772032497</v>
+        <v>26.38579687228096</v>
       </c>
       <c r="H25">
-        <v>1.710046464536595</v>
+        <v>1.737541808372661</v>
       </c>
       <c r="I25">
-        <v>2.669659597764526</v>
+        <v>2.585791128848757</v>
       </c>
       <c r="J25">
-        <v>10.30158877146688</v>
+        <v>10.18561167414193</v>
       </c>
       <c r="K25">
-        <v>15.67974629154608</v>
+        <v>14.80213052421729</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.31019540381009</v>
       </c>
       <c r="M25">
-        <v>11.78449257174883</v>
+        <v>9.615590874639858</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.51820081797807</v>
+        <v>11.69266549667143</v>
       </c>
       <c r="P25">
-        <v>12.94182849393651</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>15.47769848457701</v>
+      </c>
+      <c r="R25">
+        <v>12.75661029797046</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
